--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20596" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21436" uniqueCount="434">
   <si>
     <t>jira</t>
   </si>
@@ -1369,7 +1369,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="623" x14ac:knownFonts="1">
+  <fonts count="647" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5322,8 +5322,160 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1075">
+  <fills count="1117">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11411,8 +11563,246 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1023">
+  <borders count="1063">
     <border>
       <left/>
       <right/>
@@ -21344,6 +21734,394 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -21351,7 +22129,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="650">
+  <cellXfs count="674">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23284,40 +24062,112 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="610" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="1056" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="1056" fontId="611" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="612" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="613" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="614" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="615" fillId="1062" borderId="1014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1014" fillId="1062" fontId="615" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="1065" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="1065" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="1068" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="1068" fontId="617" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="618" fillId="1068" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="1068" fontId="618" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="619" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1074" fontId="620" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="621" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="622" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="1077" fontId="623" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="624" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1080" fontId="625" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="626" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="1083" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1086" fontId="628" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1042" fillId="1089" fontId="629" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1042" fillId="1089" fontId="630" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1092" fontId="631" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="632" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1092" fontId="633" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="634" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1098" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1104" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1107" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1110" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="1110" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1116" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -18,7 +18,7 @@
     <sheet name="scenario3" r:id="rId4" sheetId="6"/>
   </sheets>
   <definedNames>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$32</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21436" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21857" uniqueCount="436">
   <si>
     <t>jira</t>
   </si>
@@ -1363,13 +1363,19 @@
   <si>
     <t>assertBetween(num,min,max)</t>
   </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="647" x14ac:knownFonts="1">
+  <fonts count="659" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5474,8 +5480,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1117">
+  <fills count="1138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11801,8 +11883,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1063">
+  <borders count="1083">
     <border>
       <left/>
       <right/>
@@ -22122,6 +22323,200 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -22129,7 +22524,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="674">
+  <cellXfs count="686">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24134,40 +24529,76 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="634" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="1098" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1098" fontId="635" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="636" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1101" fontId="637" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="638" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="1104" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1104" fontId="639" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="1107" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1107" fontId="640" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1110" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1110" fontId="641" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="1110" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1110" fontId="642" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1113" fontId="643" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="1116" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1116" fontId="644" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1113" fontId="645" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="646" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1119" borderId="1070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1125" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1128" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1131" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1131" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24666,7 +25097,7 @@
         <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>435</v>
       </c>
       <c r="M2" t="s">
         <v>433</v>
@@ -25252,7 +25683,7 @@
         <v>421</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>434</v>
       </c>
       <c r="E16" t="s">
         <v>327</v>
@@ -25275,7 +25706,7 @@
         <v>371</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -25292,7 +25723,7 @@
         <v>417</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
@@ -25309,7 +25740,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="E19" t="s">
         <v>302</v>
@@ -25326,7 +25757,7 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>332</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>303</v>
@@ -25343,7 +25774,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>332</v>
       </c>
       <c r="E21" t="s">
         <v>304</v>
@@ -25360,7 +25791,7 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>305</v>
@@ -25374,7 +25805,7 @@
         <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
         <v>296</v>
@@ -25385,7 +25816,7 @@
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
         <v>285</v>
@@ -25396,7 +25827,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -25407,7 +25838,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>288</v>
@@ -25418,7 +25849,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>272</v>
@@ -25429,7 +25860,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>289</v>
@@ -25440,7 +25871,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
         <v>290</v>
@@ -25451,7 +25882,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
         <v>222</v>
@@ -25462,7 +25893,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
         <v>281</v>
@@ -25472,6 +25903,9 @@
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
       <c r="E32" t="s">
         <v>291</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -35,17 +35,18 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21857" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23142" uniqueCount="444">
   <si>
     <t>jira</t>
   </si>
@@ -1369,13 +1370,37 @@
   <si>
     <t>send(profile,to,subject,body)</t>
   </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(profile,text)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="659" x14ac:knownFonts="1">
+  <fonts count="695" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5556,8 +5581,236 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1138">
+  <fills count="1201">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12002,8 +12255,365 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1083">
+  <borders count="1143">
     <border>
       <left/>
       <right/>
@@ -22517,6 +23127,588 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -22524,7 +23716,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="686">
+  <cellXfs count="722">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24565,40 +25757,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="646" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1119" borderId="1070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1070" fillId="1119" fontId="647" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="649" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="650" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="1125" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1125" fontId="651" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="1128" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1128" fontId="652" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="653" fillId="1131" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1131" fontId="653" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="654" fillId="1131" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1131" fontId="654" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="655" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1134" fontId="655" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="656" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="656" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1134" fontId="657" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="658" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1140" fontId="659" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="660" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1143" fontId="661" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="662" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1146" fontId="663" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1098" fillId="1149" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1152" fontId="665" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1152" fontId="666" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1155" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1158" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1155" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1161" fontId="671" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="672" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="673" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="674" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1167" fontId="675" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1170" fontId="676" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1173" fontId="677" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1173" fontId="678" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="679" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="680" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="681" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="682" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1182" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1185" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1188" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1191" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1194" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1194" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24980,7 +26280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25041,24 +26341,27 @@
         <v>421</v>
       </c>
       <c r="Q1" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" t="s">
         <v>371</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>417</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>60</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -25112,24 +26415,27 @@
         <v>422</v>
       </c>
       <c r="Q2" t="s">
+        <v>438</v>
+      </c>
+      <c r="R2" t="s">
         <v>401</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>418</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>100</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>175</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>180</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>187</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -25180,24 +26486,27 @@
         <v>423</v>
       </c>
       <c r="Q3" t="s">
+        <v>439</v>
+      </c>
+      <c r="R3" t="s">
         <v>402</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>419</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>101</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>176</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>181</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>383</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>235</v>
       </c>
     </row>
@@ -25245,24 +26554,27 @@
         <v>424</v>
       </c>
       <c r="Q4" t="s">
+        <v>442</v>
+      </c>
+      <c r="R4" t="s">
         <v>372</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>420</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>366</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>177</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>182</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>189</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -25304,21 +26616,24 @@
         <v>425</v>
       </c>
       <c r="Q5" t="s">
+        <v>443</v>
+      </c>
+      <c r="R5" t="s">
         <v>373</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>367</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>178</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>183</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>190</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>237</v>
       </c>
     </row>
@@ -25357,21 +26672,24 @@
         <v>426</v>
       </c>
       <c r="Q6" t="s">
+        <v>441</v>
+      </c>
+      <c r="R6" t="s">
         <v>375</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>102</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>179</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>184</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>191</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -25403,22 +26721,25 @@
       <c r="N7" t="s">
         <v>250</v>
       </c>
+      <c r="O7" t="s">
+        <v>437</v>
+      </c>
       <c r="P7" t="s">
         <v>427</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>374</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>103</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>185</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>192</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>239</v>
       </c>
     </row>
@@ -25453,19 +26774,19 @@
       <c r="P8" t="s">
         <v>428</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>376</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>104</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>186</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>193</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>240</v>
       </c>
     </row>
@@ -25497,16 +26818,16 @@
       <c r="P9" t="s">
         <v>429</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>377</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>215</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>194</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>241</v>
       </c>
     </row>
@@ -25535,13 +26856,13 @@
       <c r="P10" t="s">
         <v>430</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>263</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>195</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>242</v>
       </c>
     </row>
@@ -25567,13 +26888,13 @@
       <c r="N11" t="s">
         <v>254</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>264</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>265</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>243</v>
       </c>
     </row>
@@ -25596,10 +26917,10 @@
       <c r="N12" t="s">
         <v>255</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>105</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -25622,10 +26943,10 @@
       <c r="N13" t="s">
         <v>260</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>337</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>197</v>
       </c>
     </row>
@@ -25648,10 +26969,10 @@
       <c r="N14" t="s">
         <v>256</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>106</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>198</v>
       </c>
     </row>
@@ -25671,10 +26992,10 @@
       <c r="N15" t="s">
         <v>257</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>107</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>199</v>
       </c>
     </row>
@@ -25694,16 +27015,16 @@
       <c r="N16" t="s">
         <v>258</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>78</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -25714,13 +27035,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -25731,13 +27052,13 @@
       <c r="I18" t="s">
         <v>412</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>417</v>
       </c>
       <c r="C19" t="s">
         <v>262</v>
@@ -25748,13 +27069,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -25765,13 +27086,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>332</v>
@@ -25782,13 +27103,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -25796,13 +27117,13 @@
       <c r="E22" t="s">
         <v>305</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>231</v>
@@ -25810,18 +27131,21 @@
       <c r="E23" t="s">
         <v>296</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
       <c r="C24" t="s">
         <v>232</v>
       </c>
       <c r="E24" t="s">
         <v>285</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -25832,7 +27156,7 @@
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -25843,7 +27167,7 @@
       <c r="E26" t="s">
         <v>288</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -25854,7 +27178,7 @@
       <c r="E27" t="s">
         <v>272</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>338</v>
       </c>
     </row>
@@ -25865,7 +27189,7 @@
       <c r="E28" t="s">
         <v>289</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -25876,7 +27200,7 @@
       <c r="E29" t="s">
         <v>290</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -25887,7 +27211,7 @@
       <c r="E30" t="s">
         <v>222</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -25898,7 +27222,7 @@
       <c r="E31" t="s">
         <v>281</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -25909,7 +27233,7 @@
       <c r="E32" t="s">
         <v>291</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -25917,7 +27241,7 @@
       <c r="E33" t="s">
         <v>266</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -25925,7 +27249,7 @@
       <c r="E34" t="s">
         <v>341</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>216</v>
       </c>
     </row>
@@ -25933,7 +27257,7 @@
       <c r="E35" t="s">
         <v>315</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -25941,7 +27265,7 @@
       <c r="E36" t="s">
         <v>267</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>350</v>
       </c>
     </row>
@@ -25949,7 +27273,7 @@
       <c r="E37" t="s">
         <v>316</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>413</v>
       </c>
     </row>
@@ -25957,7 +27281,7 @@
       <c r="E38" t="s">
         <v>273</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -25965,7 +27289,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -25973,7 +27297,7 @@
       <c r="E40" t="s">
         <v>218</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -25981,7 +27305,7 @@
       <c r="E41" t="s">
         <v>295</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -25989,7 +27313,7 @@
       <c r="E42" t="s">
         <v>306</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -25997,7 +27321,7 @@
       <c r="E43" t="s">
         <v>307</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -26005,7 +27329,7 @@
       <c r="E44" t="s">
         <v>355</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>219</v>
       </c>
     </row>
@@ -26013,7 +27337,7 @@
       <c r="E45" t="s">
         <v>354</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -26021,7 +27345,7 @@
       <c r="E46" t="s">
         <v>217</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -26029,7 +27353,7 @@
       <c r="E47" t="s">
         <v>331</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -26037,7 +27361,7 @@
       <c r="E48" t="s">
         <v>351</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -26045,7 +27369,7 @@
       <c r="E49" t="s">
         <v>388</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -26053,7 +27377,7 @@
       <c r="E50" t="s">
         <v>309</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>358</v>
       </c>
     </row>
@@ -26061,7 +27385,7 @@
       <c r="E51" t="s">
         <v>368</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -26069,7 +27393,7 @@
       <c r="E52" t="s">
         <v>342</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>136</v>
       </c>
     </row>
@@ -26077,7 +27401,7 @@
       <c r="E53" t="s">
         <v>274</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>137</v>
       </c>
     </row>
@@ -26085,7 +27409,7 @@
       <c r="E54" t="s">
         <v>298</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -26093,7 +27417,7 @@
       <c r="E55" t="s">
         <v>299</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -26101,7 +27425,7 @@
       <c r="E56" t="s">
         <v>300</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -26109,7 +27433,7 @@
       <c r="E57" t="s">
         <v>310</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>141</v>
       </c>
     </row>
@@ -26117,7 +27441,7 @@
       <c r="E58" t="s">
         <v>320</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>220</v>
       </c>
     </row>
@@ -26125,7 +27449,7 @@
       <c r="E59" t="s">
         <v>349</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>409</v>
       </c>
     </row>
@@ -26133,7 +27457,7 @@
       <c r="E60" t="s">
         <v>317</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>142</v>
       </c>
     </row>
@@ -26141,7 +27465,7 @@
       <c r="E61" t="s">
         <v>318</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>143</v>
       </c>
     </row>
@@ -26149,7 +27473,7 @@
       <c r="E62" t="s">
         <v>389</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>144</v>
       </c>
     </row>
@@ -26157,7 +27481,7 @@
       <c r="E63" t="s">
         <v>390</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>145</v>
       </c>
     </row>
@@ -26165,7 +27489,7 @@
       <c r="E64" t="s">
         <v>357</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>203</v>
       </c>
     </row>
@@ -26173,7 +27497,7 @@
       <c r="E65" t="s">
         <v>321</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>204</v>
       </c>
     </row>
@@ -26181,7 +27505,7 @@
       <c r="E66" t="s">
         <v>275</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>146</v>
       </c>
     </row>
@@ -26189,7 +27513,7 @@
       <c r="E67" t="s">
         <v>365</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>147</v>
       </c>
     </row>
@@ -26197,7 +27521,7 @@
       <c r="E68" t="s">
         <v>322</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>148</v>
       </c>
     </row>
@@ -26205,7 +27529,7 @@
       <c r="E69" t="s">
         <v>431</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>149</v>
       </c>
     </row>
@@ -26213,7 +27537,7 @@
       <c r="E70" t="s">
         <v>312</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>150</v>
       </c>
     </row>
@@ -26221,7 +27545,7 @@
       <c r="E71" t="s">
         <v>432</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>205</v>
       </c>
     </row>
@@ -26229,7 +27553,7 @@
       <c r="E72" t="s">
         <v>268</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>206</v>
       </c>
     </row>
@@ -26237,7 +27561,7 @@
       <c r="E73" t="s">
         <v>356</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>207</v>
       </c>
     </row>
@@ -26245,7 +27569,7 @@
       <c r="E74" t="s">
         <v>286</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>208</v>
       </c>
     </row>
@@ -26253,7 +27577,7 @@
       <c r="E75" t="s">
         <v>292</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>221</v>
       </c>
     </row>
@@ -26261,7 +27585,7 @@
       <c r="E76" t="s">
         <v>297</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>151</v>
       </c>
     </row>
@@ -26269,7 +27593,7 @@
       <c r="E77" t="s">
         <v>343</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>209</v>
       </c>
     </row>
@@ -26277,7 +27601,7 @@
       <c r="E78" t="s">
         <v>276</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>152</v>
       </c>
     </row>
@@ -26285,7 +27609,7 @@
       <c r="E79" t="s">
         <v>287</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>210</v>
       </c>
     </row>
@@ -26293,7 +27617,7 @@
       <c r="E80" t="s">
         <v>293</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>211</v>
       </c>
     </row>
@@ -26301,7 +27625,7 @@
       <c r="E81" t="s">
         <v>282</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>212</v>
       </c>
     </row>
@@ -26309,7 +27633,7 @@
       <c r="E82" t="s">
         <v>277</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>213</v>
       </c>
     </row>
@@ -26317,7 +27641,7 @@
       <c r="E83" t="s">
         <v>294</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>229</v>
       </c>
     </row>
@@ -26325,7 +27649,7 @@
       <c r="E84" t="s">
         <v>278</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>214</v>
       </c>
     </row>
@@ -26333,7 +27657,7 @@
       <c r="E85" t="s">
         <v>279</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>153</v>
       </c>
     </row>
@@ -26341,7 +27665,7 @@
       <c r="E86" t="s">
         <v>313</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>403</v>
       </c>
     </row>
@@ -26349,7 +27673,7 @@
       <c r="E87" t="s">
         <v>319</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>154</v>
       </c>
     </row>
@@ -26357,7 +27681,7 @@
       <c r="E88" t="s">
         <v>301</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>155</v>
       </c>
     </row>
@@ -26365,7 +27689,7 @@
       <c r="E89" t="s">
         <v>352</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>156</v>
       </c>
     </row>
@@ -26373,7 +27697,7 @@
       <c r="E90" t="s">
         <v>283</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>157</v>
       </c>
     </row>
@@ -26381,92 +27705,92 @@
       <c r="E91" t="s">
         <v>284</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="S106" t="s">
+      <c r="T106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -18,7 +18,7 @@
     <sheet name="scenario3" r:id="rId4" sheetId="6"/>
   </sheets>
   <definedNames>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -46,7 +46,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23142" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23571" uniqueCount="446">
   <si>
     <t>jira</t>
   </si>
@@ -1394,13 +1394,19 @@
   <si>
     <t>speakNoWait(text)</t>
   </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="695" x14ac:knownFonts="1">
+  <fonts count="710" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5809,8 +5815,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1201">
+  <fills count="1228">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12612,8 +12712,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1143">
+  <borders count="1171">
     <border>
       <left/>
       <right/>
@@ -23709,6 +23962,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23716,7 +24251,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="722">
+  <cellXfs count="737">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25865,40 +26400,85 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="682" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="1182" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1182" fontId="683" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="684" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="685" fillId="1185" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1185" fontId="685" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="686" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="687" fillId="1188" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1188" fontId="687" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="688" fillId="1191" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1191" fontId="688" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="689" fillId="1194" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1194" fontId="689" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="1194" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1194" fontId="690" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="691" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1197" fontId="691" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="692" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1200" fontId="692" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="693" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1197" fontId="693" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="694" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1203" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="1206" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="1209" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1215" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="1218" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1221" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1221" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26415,7 +26995,7 @@
         <v>422</v>
       </c>
       <c r="Q2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="R2" t="s">
         <v>401</v>
@@ -26671,9 +27251,6 @@
       <c r="P6" t="s">
         <v>426</v>
       </c>
-      <c r="Q6" t="s">
-        <v>441</v>
-      </c>
       <c r="R6" t="s">
         <v>375</v>
       </c>
@@ -27151,7 +27728,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>67</v>
+        <v>444</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -27162,7 +27739,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>288</v>
@@ -27173,7 +27750,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
         <v>272</v>
@@ -27184,7 +27761,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
         <v>289</v>
@@ -27195,7 +27772,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
         <v>290</v>
@@ -27206,7 +27783,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
         <v>222</v>
@@ -27217,7 +27794,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
         <v>281</v>
@@ -27228,7 +27805,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
         <v>291</v>
@@ -27238,6 +27815,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
       <c r="E33" t="s">
         <v>266</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -36,17 +36,19 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23571" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24443" uniqueCount="454">
   <si>
     <t>jira</t>
   </si>
@@ -1400,13 +1402,37 @@
   <si>
     <t>laser(repeats)</t>
   </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="710" x14ac:knownFonts="1">
+  <fonts count="740" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5909,8 +5935,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1228">
+  <fills count="1282">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12865,8 +13079,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1171">
+  <borders count="1227">
     <border>
       <left/>
       <right/>
@@ -24244,6 +24764,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24251,7 +25335,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="737">
+  <cellXfs count="767">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26436,49 +27520,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="694" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="1203" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1203" fontId="695" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="696" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="697" fillId="1206" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1154" fillId="1206" fontId="697" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="698" fillId="1209" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1209" fontId="698" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="699" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="700" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1212" fontId="700" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="701" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="702" fillId="1215" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1215" fontId="702" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="703" fillId="1218" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1218" fontId="703" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="704" fillId="1221" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1221" fontId="704" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="1221" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1221" fontId="705" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1224" fontId="706" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="707" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1227" fontId="707" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="708" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1224" fontId="708" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="709" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1230" fontId="710" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1233" fontId="712" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1236" fontId="713" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="714" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1239" fontId="715" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1242" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1245" fontId="718" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1248" fontId="719" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1248" fontId="720" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1251" fontId="721" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="722" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1251" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="724" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="1257" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1260" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1263" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1269" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1272" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1275" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1275" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26860,7 +28034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26921,27 +28095,33 @@
         <v>421</v>
       </c>
       <c r="Q1" t="s">
+        <v>446</v>
+      </c>
+      <c r="R1" t="s">
         <v>436</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>371</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>417</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -26995,27 +28175,33 @@
         <v>422</v>
       </c>
       <c r="Q2" t="s">
+        <v>447</v>
+      </c>
+      <c r="R2" t="s">
         <v>445</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>401</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>418</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>100</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>175</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>180</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>187</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -27065,28 +28251,31 @@
       <c r="P3" t="s">
         <v>423</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>439</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>402</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>419</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>101</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>176</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>181</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>383</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z3" t="s">
         <v>235</v>
       </c>
     </row>
@@ -27133,28 +28322,31 @@
       <c r="P4" t="s">
         <v>424</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>442</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>372</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>420</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>366</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>177</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>182</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>189</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -27195,25 +28387,28 @@
       <c r="P5" t="s">
         <v>425</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>443</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>373</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>367</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>178</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>183</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>190</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z5" t="s">
         <v>237</v>
       </c>
     </row>
@@ -27251,22 +28446,25 @@
       <c r="P6" t="s">
         <v>426</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>375</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>102</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>179</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>184</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>191</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -27304,19 +28502,22 @@
       <c r="P7" t="s">
         <v>427</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>374</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>103</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>185</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>192</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z7" t="s">
         <v>239</v>
       </c>
     </row>
@@ -27351,19 +28552,19 @@
       <c r="P8" t="s">
         <v>428</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>376</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>104</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>186</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>193</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>240</v>
       </c>
     </row>
@@ -27395,16 +28596,16 @@
       <c r="P9" t="s">
         <v>429</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>377</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>215</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>194</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>241</v>
       </c>
     </row>
@@ -27433,13 +28634,13 @@
       <c r="P10" t="s">
         <v>430</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>263</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>195</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>242</v>
       </c>
     </row>
@@ -27465,13 +28666,13 @@
       <c r="N11" t="s">
         <v>254</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>264</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>265</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>243</v>
       </c>
     </row>
@@ -27494,10 +28695,10 @@
       <c r="N12" t="s">
         <v>255</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>105</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -27520,10 +28721,10 @@
       <c r="N13" t="s">
         <v>260</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>337</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>197</v>
       </c>
     </row>
@@ -27546,10 +28747,10 @@
       <c r="N14" t="s">
         <v>256</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>106</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>198</v>
       </c>
     </row>
@@ -27569,10 +28770,10 @@
       <c r="N15" t="s">
         <v>257</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>107</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>199</v>
       </c>
     </row>
@@ -27592,16 +28793,16 @@
       <c r="N16" t="s">
         <v>258</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>78</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -27612,13 +28813,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -27629,13 +28830,13 @@
       <c r="I18" t="s">
         <v>412</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="C19" t="s">
         <v>262</v>
@@ -27646,13 +28847,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>417</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -27663,13 +28864,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>332</v>
@@ -27680,13 +28881,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -27694,13 +28895,13 @@
       <c r="E22" t="s">
         <v>305</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>231</v>
@@ -27708,13 +28909,13 @@
       <c r="E23" t="s">
         <v>296</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>232</v>
@@ -27722,29 +28923,35 @@
       <c r="E24" t="s">
         <v>285</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>448</v>
+      </c>
       <c r="C25" t="s">
         <v>444</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>233</v>
+      </c>
       <c r="C26" t="s">
         <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>288</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -27755,7 +28962,7 @@
       <c r="E27" t="s">
         <v>272</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>338</v>
       </c>
     </row>
@@ -27766,7 +28973,7 @@
       <c r="E28" t="s">
         <v>289</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -27777,7 +28984,7 @@
       <c r="E29" t="s">
         <v>290</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -27788,7 +28995,7 @@
       <c r="E30" t="s">
         <v>222</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -27799,7 +29006,7 @@
       <c r="E31" t="s">
         <v>281</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -27810,7 +29017,7 @@
       <c r="E32" t="s">
         <v>291</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -27821,7 +29028,7 @@
       <c r="E33" t="s">
         <v>266</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -27829,7 +29036,7 @@
       <c r="E34" t="s">
         <v>341</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>216</v>
       </c>
     </row>
@@ -27837,7 +29044,7 @@
       <c r="E35" t="s">
         <v>315</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -27845,7 +29052,7 @@
       <c r="E36" t="s">
         <v>267</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>350</v>
       </c>
     </row>
@@ -27853,7 +29060,7 @@
       <c r="E37" t="s">
         <v>316</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>413</v>
       </c>
     </row>
@@ -27861,7 +29068,7 @@
       <c r="E38" t="s">
         <v>273</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -27869,7 +29076,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -27877,7 +29084,7 @@
       <c r="E40" t="s">
         <v>218</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -27885,7 +29092,7 @@
       <c r="E41" t="s">
         <v>295</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -27893,7 +29100,7 @@
       <c r="E42" t="s">
         <v>306</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -27901,7 +29108,7 @@
       <c r="E43" t="s">
         <v>307</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -27909,7 +29116,7 @@
       <c r="E44" t="s">
         <v>355</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>219</v>
       </c>
     </row>
@@ -27917,7 +29124,7 @@
       <c r="E45" t="s">
         <v>354</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -27925,7 +29132,7 @@
       <c r="E46" t="s">
         <v>217</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -27933,7 +29140,7 @@
       <c r="E47" t="s">
         <v>331</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -27941,7 +29148,7 @@
       <c r="E48" t="s">
         <v>351</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -27949,7 +29156,7 @@
       <c r="E49" t="s">
         <v>388</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -27957,7 +29164,7 @@
       <c r="E50" t="s">
         <v>309</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>358</v>
       </c>
     </row>
@@ -27965,7 +29172,7 @@
       <c r="E51" t="s">
         <v>368</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -27973,7 +29180,7 @@
       <c r="E52" t="s">
         <v>342</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>136</v>
       </c>
     </row>
@@ -27981,7 +29188,7 @@
       <c r="E53" t="s">
         <v>274</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>137</v>
       </c>
     </row>
@@ -27989,7 +29196,7 @@
       <c r="E54" t="s">
         <v>298</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -27997,7 +29204,7 @@
       <c r="E55" t="s">
         <v>299</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -28005,7 +29212,7 @@
       <c r="E56" t="s">
         <v>300</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -28013,7 +29220,7 @@
       <c r="E57" t="s">
         <v>310</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>141</v>
       </c>
     </row>
@@ -28021,7 +29228,7 @@
       <c r="E58" t="s">
         <v>320</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>220</v>
       </c>
     </row>
@@ -28029,7 +29236,7 @@
       <c r="E59" t="s">
         <v>349</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>409</v>
       </c>
     </row>
@@ -28037,7 +29244,7 @@
       <c r="E60" t="s">
         <v>317</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>142</v>
       </c>
     </row>
@@ -28045,7 +29252,7 @@
       <c r="E61" t="s">
         <v>318</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>143</v>
       </c>
     </row>
@@ -28053,7 +29260,7 @@
       <c r="E62" t="s">
         <v>389</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>144</v>
       </c>
     </row>
@@ -28061,7 +29268,7 @@
       <c r="E63" t="s">
         <v>390</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>145</v>
       </c>
     </row>
@@ -28069,7 +29276,7 @@
       <c r="E64" t="s">
         <v>357</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>203</v>
       </c>
     </row>
@@ -28077,7 +29284,7 @@
       <c r="E65" t="s">
         <v>321</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>204</v>
       </c>
     </row>
@@ -28085,7 +29292,7 @@
       <c r="E66" t="s">
         <v>275</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" t="s">
         <v>146</v>
       </c>
     </row>
@@ -28093,7 +29300,7 @@
       <c r="E67" t="s">
         <v>365</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>147</v>
       </c>
     </row>
@@ -28101,7 +29308,7 @@
       <c r="E68" t="s">
         <v>322</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>148</v>
       </c>
     </row>
@@ -28109,7 +29316,7 @@
       <c r="E69" t="s">
         <v>431</v>
       </c>
-      <c r="T69" t="s">
+      <c r="U69" t="s">
         <v>149</v>
       </c>
     </row>
@@ -28117,7 +29324,7 @@
       <c r="E70" t="s">
         <v>312</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>150</v>
       </c>
     </row>
@@ -28125,7 +29332,7 @@
       <c r="E71" t="s">
         <v>432</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>205</v>
       </c>
     </row>
@@ -28133,7 +29340,7 @@
       <c r="E72" t="s">
         <v>268</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>206</v>
       </c>
     </row>
@@ -28141,7 +29348,7 @@
       <c r="E73" t="s">
         <v>356</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>207</v>
       </c>
     </row>
@@ -28149,7 +29356,7 @@
       <c r="E74" t="s">
         <v>286</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>208</v>
       </c>
     </row>
@@ -28157,7 +29364,7 @@
       <c r="E75" t="s">
         <v>292</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>221</v>
       </c>
     </row>
@@ -28165,7 +29372,7 @@
       <c r="E76" t="s">
         <v>297</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>151</v>
       </c>
     </row>
@@ -28173,7 +29380,7 @@
       <c r="E77" t="s">
         <v>343</v>
       </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
         <v>209</v>
       </c>
     </row>
@@ -28181,7 +29388,7 @@
       <c r="E78" t="s">
         <v>276</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
         <v>152</v>
       </c>
     </row>
@@ -28189,7 +29396,7 @@
       <c r="E79" t="s">
         <v>287</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>210</v>
       </c>
     </row>
@@ -28197,7 +29404,7 @@
       <c r="E80" t="s">
         <v>293</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>211</v>
       </c>
     </row>
@@ -28205,7 +29412,7 @@
       <c r="E81" t="s">
         <v>282</v>
       </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>212</v>
       </c>
     </row>
@@ -28213,7 +29420,7 @@
       <c r="E82" t="s">
         <v>277</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>213</v>
       </c>
     </row>
@@ -28221,7 +29428,7 @@
       <c r="E83" t="s">
         <v>294</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>229</v>
       </c>
     </row>
@@ -28229,7 +29436,7 @@
       <c r="E84" t="s">
         <v>278</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>214</v>
       </c>
     </row>
@@ -28237,7 +29444,7 @@
       <c r="E85" t="s">
         <v>279</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
         <v>153</v>
       </c>
     </row>
@@ -28245,7 +29452,7 @@
       <c r="E86" t="s">
         <v>313</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>403</v>
       </c>
     </row>
@@ -28253,7 +29460,7 @@
       <c r="E87" t="s">
         <v>319</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>154</v>
       </c>
     </row>
@@ -28261,7 +29468,7 @@
       <c r="E88" t="s">
         <v>301</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>155</v>
       </c>
     </row>
@@ -28269,7 +29476,7 @@
       <c r="E89" t="s">
         <v>352</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>156</v>
       </c>
     </row>
@@ -28277,7 +29484,7 @@
       <c r="E90" t="s">
         <v>283</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>157</v>
       </c>
     </row>
@@ -28285,92 +29492,92 @@
       <c r="E91" t="s">
         <v>284</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="T93" t="s">
+      <c r="U93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="T94" t="s">
+      <c r="U94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="T95" t="s">
+      <c r="U95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="T96" t="s">
+      <c r="U96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="T97" t="s">
+      <c r="U97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="T98" t="s">
+      <c r="U98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="T99" t="s">
+      <c r="U99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="T100" t="s">
+      <c r="U100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="T101" t="s">
+      <c r="U101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="T102" t="s">
+      <c r="U102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="T103" t="s">
+      <c r="U103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="T104" t="s">
+      <c r="U104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="T105" t="s">
+      <c r="U105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="T106" t="s">
+      <c r="U106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="T107" t="s">
+      <c r="U107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="T108" t="s">
+      <c r="U108" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -22,18 +22,18 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
@@ -48,7 +48,7 @@
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
     <definedName name="sound">'#system'!$R$2:$R$5</definedName>
     <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24443" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26219" uniqueCount="468">
   <si>
     <t>jira</t>
   </si>
@@ -1426,13 +1426,55 @@
   <si>
     <t>put(url,body,output)</t>
   </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>average(variableName,array)</t>
+  </si>
+  <si>
+    <t>ceiling(variableName)</t>
+  </si>
+  <si>
+    <t>decrement(variableName,amount)</t>
+  </si>
+  <si>
+    <t>floor(variableName)</t>
+  </si>
+  <si>
+    <t>increment(variableName,amount)</t>
+  </si>
+  <si>
+    <t>max(variableName,array)</t>
+  </si>
+  <si>
+    <t>min(variableName,array)</t>
+  </si>
+  <si>
+    <t>round(variableName,closestDigit)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="740" x14ac:knownFonts="1">
+  <fonts count="800" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6123,8 +6165,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1282">
+  <fills count="1390">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13385,8 +13803,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1227">
+  <borders count="1339">
     <border>
       <left/>
       <right/>
@@ -25328,6 +26358,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -25335,7 +27493,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="767">
+  <cellXfs count="827">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27610,49 +29768,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="724" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="1257" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1257" fontId="725" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="726" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="726" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="727" fillId="1260" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1210" fillId="1260" fontId="727" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="728" fillId="1263" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1263" fontId="728" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="729" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="730" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1266" fontId="730" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="731" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="732" fillId="1269" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1269" fontId="732" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="733" fillId="1272" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1272" fontId="733" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="734" fillId="1275" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1275" fontId="734" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="735" fillId="1275" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1275" fontId="735" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="736" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1278" fontId="736" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="737" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1281" fontId="737" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="738" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1278" fontId="738" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="739" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1284" fontId="740" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="741" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1238" fillId="1287" fontId="742" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1290" fontId="743" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="744" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1293" fontId="745" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="746" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1296" fontId="747" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1299" fontId="748" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1302" fontId="749" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1302" fontId="750" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1305" fontId="751" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1308" fontId="752" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1305" fontId="753" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="754" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1311" fontId="755" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="756" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1266" fillId="1314" fontId="757" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1317" fontId="758" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="759" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1320" fontId="760" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="761" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1323" fontId="762" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1326" fontId="763" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1329" fontId="764" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1329" fontId="765" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1332" fontId="766" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1335" fontId="767" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1332" fontId="768" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="769" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1338" fontId="770" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="771" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1341" fontId="772" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1344" fontId="773" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="774" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1347" fontId="775" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="776" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1350" fontId="777" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1353" fontId="778" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1356" fontId="779" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1356" fontId="780" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1359" fontId="781" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1362" fontId="782" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1359" fontId="783" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="784" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1365" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="1368" borderId="1322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="1371" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="1374" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="1377" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="1380" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="1383" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="1383" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="1389" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28157,13 +30495,13 @@
         <v>404</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>455</v>
       </c>
       <c r="L2" t="s">
         <v>435</v>
       </c>
       <c r="M2" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="N2" t="s">
         <v>259</v>
@@ -28199,7 +30537,7 @@
         <v>187</v>
       </c>
       <c r="Y2" t="s">
-        <v>189</v>
+        <v>466</v>
       </c>
       <c r="Z2" t="s">
         <v>234</v>
@@ -28237,10 +30575,10 @@
         <v>346</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>323</v>
+        <v>457</v>
       </c>
       <c r="N3" t="s">
         <v>246</v>
@@ -28273,7 +30611,7 @@
         <v>383</v>
       </c>
       <c r="Y3" t="s">
-        <v>449</v>
+        <v>189</v>
       </c>
       <c r="Z3" t="s">
         <v>235</v>
@@ -28308,7 +30646,7 @@
         <v>347</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -28344,7 +30682,7 @@
         <v>189</v>
       </c>
       <c r="Y4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Z4" t="s">
         <v>236</v>
@@ -28373,7 +30711,7 @@
         <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -28406,7 +30744,7 @@
         <v>190</v>
       </c>
       <c r="Y5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Z5" t="s">
         <v>237</v>
@@ -28432,7 +30770,7 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
         <v>33</v>
@@ -28462,7 +30800,7 @@
         <v>191</v>
       </c>
       <c r="Y6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Z6" t="s">
         <v>238</v>
@@ -28488,7 +30826,7 @@
         <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
@@ -28515,7 +30853,7 @@
         <v>192</v>
       </c>
       <c r="Y7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Z7" t="s">
         <v>239</v>
@@ -28541,7 +30879,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
         <v>94</v>
@@ -28564,6 +30902,9 @@
       <c r="X8" t="s">
         <v>193</v>
       </c>
+      <c r="Y8" t="s">
+        <v>453</v>
+      </c>
       <c r="Z8" t="s">
         <v>240</v>
       </c>
@@ -28585,7 +30926,7 @@
         <v>410</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s">
         <v>95</v>
@@ -28623,10 +30964,10 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>467</v>
       </c>
       <c r="N10" t="s">
         <v>253</v>
@@ -28658,10 +30999,10 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="N11" t="s">
         <v>254</v>
@@ -28689,8 +31030,11 @@
       <c r="I12" t="s">
         <v>84</v>
       </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
         <v>255</v>
@@ -28716,7 +31060,7 @@
         <v>85</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N13" t="s">
         <v>260</v>
@@ -28742,7 +31086,7 @@
         <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
         <v>256</v>
@@ -28766,6 +31110,9 @@
       </c>
       <c r="I15" t="s">
         <v>87</v>
+      </c>
+      <c r="M15" t="s">
+        <v>99</v>
       </c>
       <c r="N15" t="s">
         <v>257</v>
@@ -29378,7 +31725,7 @@
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>343</v>
+        <v>454</v>
       </c>
       <c r="U77" t="s">
         <v>209</v>
@@ -29386,7 +31733,7 @@
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
       <c r="U78" t="s">
         <v>152</v>
@@ -29394,7 +31741,7 @@
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="U79" t="s">
         <v>210</v>
@@ -29402,7 +31749,7 @@
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="U80" t="s">
         <v>211</v>
@@ -29410,7 +31757,7 @@
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="U81" t="s">
         <v>212</v>
@@ -29418,7 +31765,7 @@
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="U82" t="s">
         <v>213</v>
@@ -29426,7 +31773,7 @@
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="U83" t="s">
         <v>229</v>
@@ -29434,7 +31781,7 @@
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="U84" t="s">
         <v>214</v>
@@ -29442,7 +31789,7 @@
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U85" t="s">
         <v>153</v>
@@ -29450,7 +31797,7 @@
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="U86" t="s">
         <v>403</v>
@@ -29458,7 +31805,7 @@
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="U87" t="s">
         <v>154</v>
@@ -29466,7 +31813,7 @@
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="U88" t="s">
         <v>155</v>
@@ -29474,7 +31821,7 @@
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="U89" t="s">
         <v>156</v>
@@ -29482,7 +31829,7 @@
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="U90" t="s">
         <v>157</v>
@@ -29490,13 +31837,16 @@
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
+      <c r="E92" t="s">
+        <v>284</v>
+      </c>
       <c r="U92" t="s">
         <v>159</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="447">
   <si>
     <t>description</t>
   </si>
@@ -1402,6 +1402,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1412,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1768,8 +1771,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2247,8 +2344,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3132,6 +3382,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3139,7 +3671,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3362,49 +3894,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="43" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3789,7 +4366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5001,7 +5578,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>215</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60">
@@ -5009,7 +5586,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>395</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -5017,7 +5594,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62">
@@ -5025,7 +5602,7 @@
         <v>375</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -5033,7 +5610,7 @@
         <v>376</v>
       </c>
       <c r="U63" t="s">
-        <v>442</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -5041,7 +5618,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65">
@@ -5049,7 +5626,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -5057,7 +5634,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -5065,7 +5642,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -5073,7 +5650,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -5081,7 +5658,7 @@
         <v>416</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -5089,7 +5666,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -5097,7 +5674,7 @@
         <v>417</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -5105,7 +5682,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -5113,7 +5690,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -5121,7 +5698,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -5129,7 +5706,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -5137,7 +5714,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -5145,7 +5722,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -5153,7 +5730,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
@@ -5161,7 +5738,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -5169,7 +5746,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -5177,7 +5754,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82">
@@ -5185,7 +5762,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83">
@@ -5193,7 +5770,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -5201,7 +5778,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -5209,7 +5786,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -5217,7 +5794,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -5225,7 +5802,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -5233,7 +5810,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -5241,7 +5818,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>389</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -5249,7 +5826,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91">
@@ -5257,7 +5834,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -5265,101 +5842,106 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -21,16 +21,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -44,8 +44,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="455">
   <si>
     <t>description</t>
   </si>
@@ -1405,6 +1405,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1436,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="86" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1865,8 +1889,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2497,8 +2615,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3664,6 +3935,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3671,7 +4224,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3939,49 +4492,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4366,7 +4964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4692,6 +5290,9 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
+      <c r="D5" t="s">
+        <v>447</v>
+      </c>
       <c r="E5" t="s">
         <v>337</v>
       </c>
@@ -4785,7 +5386,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>453</v>
       </c>
       <c r="W6" t="s">
         <v>181</v>
@@ -4840,6 +5441,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>454</v>
+      </c>
       <c r="W7" t="s">
         <v>182</v>
       </c>
@@ -4890,6 +5494,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>176</v>
+      </c>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -4958,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>449</v>
       </c>
       <c r="M10" t="s">
         <v>440</v>
@@ -4993,7 +5600,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -5025,7 +5632,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -5053,6 +5660,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -5203,7 +5813,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -5220,7 +5830,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -5236,6 +5846,9 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -5466,7 +6079,7 @@
         <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>214</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46">
@@ -5474,7 +6087,7 @@
         <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -5482,7 +6095,7 @@
         <v>321</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -5490,7 +6103,7 @@
         <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -5498,7 +6111,7 @@
         <v>374</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -5506,7 +6119,7 @@
         <v>303</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -5514,7 +6127,7 @@
         <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -5522,7 +6135,7 @@
         <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53">
@@ -5530,7 +6143,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -5538,7 +6151,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -5546,7 +6159,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -5554,7 +6167,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -5562,7 +6175,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -5570,7 +6183,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -5578,7 +6191,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>446</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -5586,7 +6199,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>215</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61">
@@ -5594,7 +6207,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>395</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
@@ -5602,7 +6215,7 @@
         <v>375</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63">
@@ -5610,7 +6223,7 @@
         <v>376</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64">
@@ -5618,7 +6231,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>442</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -5626,7 +6239,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -5634,7 +6247,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -5642,7 +6255,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -5650,7 +6263,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -5658,7 +6271,7 @@
         <v>416</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -5666,7 +6279,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -5674,7 +6287,7 @@
         <v>417</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -5682,7 +6295,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -5690,7 +6303,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -5698,7 +6311,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -5706,7 +6319,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -5714,7 +6327,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -5722,7 +6335,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -5730,7 +6343,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -5738,7 +6351,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -5746,7 +6359,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -5754,7 +6367,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -5762,7 +6375,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83">
@@ -5770,7 +6383,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84">
@@ -5778,7 +6391,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -5786,7 +6399,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -5794,7 +6407,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -5802,7 +6415,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -5810,7 +6423,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -5818,7 +6431,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -5826,7 +6439,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>389</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -5834,7 +6447,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92">
@@ -5842,106 +6455,116 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="455">
   <si>
     <t>description</t>
   </si>
@@ -1436,7 +1436,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="86" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1983,8 +1983,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2768,8 +2862,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4217,6 +4464,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4224,7 +4753,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4537,49 +5066,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="455">
   <si>
     <t>description</t>
   </si>
@@ -1436,7 +1436,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2077,8 +2077,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3015,8 +3109,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4746,6 +4993,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4753,7 +5282,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5111,49 +5640,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="455">
   <si>
     <t>description</t>
   </si>
@@ -1436,7 +1436,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2171,8 +2171,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3262,8 +3356,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5275,6 +5522,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5282,7 +5811,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5685,49 +6214,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6569,7 +7143,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -6625,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -6675,7 +7249,7 @@
         <v>396</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -6713,7 +7287,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>449</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>440</v>
@@ -6748,7 +7322,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>449</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -6780,7 +7354,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -6809,7 +7383,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -6836,6 +7410,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="457">
   <si>
     <t>description</t>
   </si>
@@ -1429,6 +1429,12 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1442,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2265,8 +2271,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3509,8 +3609,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5804,6 +6057,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5811,7 +6346,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6259,49 +6794,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6874,7 +7454,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -6948,7 +7528,7 @@
         <v>393</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -7019,7 +7599,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -7081,7 +7661,7 @@
         <v>394</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -7137,7 +7717,7 @@
         <v>372</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -7193,7 +7773,7 @@
         <v>373</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -7245,6 +7825,9 @@
       <c r="E9" t="s">
         <v>307</v>
       </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
       <c r="I9" t="s">
         <v>396</v>
       </c>
@@ -7282,6 +7865,9 @@
       </c>
       <c r="E10" t="s">
         <v>353</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -20,12 +20,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5523" uniqueCount="462">
   <si>
     <t>description</t>
   </si>
@@ -1435,6 +1435,21 @@
   </si>
   <si>
     <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1457,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="176" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2365,8 +2380,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3762,8 +3965,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6339,6 +6848,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6346,7 +7419,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="203">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6839,49 +7912,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7374,7 +8537,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>458</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -7454,7 +8617,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>455</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -7528,7 +8691,7 @@
         <v>393</v>
       </c>
       <c r="F4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -7599,7 +8762,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>460</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -7661,7 +8824,7 @@
         <v>394</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -7717,7 +8880,7 @@
         <v>372</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -7773,7 +8936,7 @@
         <v>373</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -7826,7 +8989,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>461</v>
       </c>
       <c r="I9" t="s">
         <v>396</v>
@@ -7867,7 +9030,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -7904,6 +9067,9 @@
       <c r="E11" t="s">
         <v>275</v>
       </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -7936,6 +9102,9 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -7965,6 +9134,9 @@
       <c r="E13" t="s">
         <v>317</v>
       </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -8169,7 +9341,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>457</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -8183,7 +9355,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -8197,7 +9369,7 @@
         <v>429</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -8211,7 +9383,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>425</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -8222,7 +9394,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -8233,7 +9405,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -8244,7 +9416,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -8255,7 +9427,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -8266,7 +9438,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -8277,7 +9449,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -8288,7 +9460,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -8298,6 +9470,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5523" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6449" uniqueCount="464">
   <si>
     <t>description</t>
   </si>
@@ -1450,6 +1450,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1463,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="176" x14ac:knownFonts="1">
+  <fonts count="206" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2568,8 +2574,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4271,8 +4465,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7412,6 +7912,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7419,7 +8483,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="233">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8002,49 +9066,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8429,7 +9583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9821,7 +10975,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78">
@@ -9829,7 +10983,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -9837,7 +10991,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -9845,7 +10999,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -9853,7 +11007,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -9861,7 +11015,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -9869,7 +11023,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84">
@@ -9877,7 +11031,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85">
@@ -9885,7 +11039,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -9893,7 +11047,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -9901,7 +11055,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -9909,7 +11063,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -9917,7 +11071,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90">
@@ -9925,7 +11079,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -9933,7 +11087,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>389</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -9941,116 +11095,121 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>452</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6449" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6913" uniqueCount="465">
   <si>
     <t>description</t>
   </si>
@@ -1456,6 +1456,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1466,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2762,8 +2765,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4771,8 +4868,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8476,6 +8726,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8483,7 +9015,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="248">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9156,49 +9688,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9583,7 +10160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10919,7 +11496,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>464</v>
       </c>
     </row>
     <row r="71">
@@ -10927,7 +11504,7 @@
         <v>417</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -10935,7 +11512,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -10943,7 +11520,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -10951,7 +11528,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -10959,7 +11536,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -10967,7 +11544,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -10975,7 +11552,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>463</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -10983,7 +11560,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79">
@@ -10991,7 +11568,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -10999,7 +11576,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -11007,7 +11584,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -11015,7 +11592,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -11023,7 +11600,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -11031,7 +11608,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85">
@@ -11039,7 +11616,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86">
@@ -11047,7 +11624,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -11055,7 +11632,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -11063,7 +11640,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -11071,7 +11648,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -11079,7 +11656,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -11087,7 +11664,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -11095,121 +11672,126 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>389</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>452</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>452</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6913" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7378" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1460,13 +1460,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="236" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2859,8 +2862,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5021,8 +5118,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -9008,6 +9258,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9015,7 +9547,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="263">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9733,49 +10265,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10493,7 +11070,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -10555,7 +11132,7 @@
         <v>394</v>
       </c>
       <c r="F6" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10611,7 +11188,7 @@
         <v>372</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>456</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -10667,7 +11244,7 @@
         <v>373</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10720,7 +11297,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>461</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
         <v>396</v>
@@ -10761,7 +11338,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>461</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -10799,7 +11376,7 @@
         <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -10834,7 +11411,7 @@
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -10866,7 +11443,7 @@
         <v>317</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -10896,6 +11473,9 @@
       </c>
       <c r="E14" t="s">
         <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7378" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8309" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1463,13 +1463,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="236" x14ac:knownFonts="1">
+  <fonts count="266" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2956,8 +2959,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5271,8 +5462,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -9540,6 +10037,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9547,7 +10608,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10310,49 +11371,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="241" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11478,7 +12629,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>466</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -11507,7 +12658,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -11533,7 +12684,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>386</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -11556,7 +12707,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -11573,7 +12724,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -11590,7 +12741,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -11607,7 +12758,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>448</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -11624,7 +12775,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -11641,7 +12792,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -11656,6 +12807,9 @@
       </c>
       <c r="E23" t="s">
         <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8309" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8777" uniqueCount="469">
   <si>
     <t>description</t>
   </si>
@@ -1466,13 +1466,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="266" x14ac:knownFonts="1">
+  <fonts count="281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3147,8 +3153,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5768,8 +5868,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10601,6 +10854,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10608,7 +11143,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="308">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11461,49 +11996,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12067,7 +12647,7 @@
         <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>467</v>
       </c>
       <c r="D3" t="s">
         <v>371</v>
@@ -12141,7 +12721,7 @@
         <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -12212,7 +12792,7 @@
         <v>381</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>468</v>
       </c>
       <c r="D5" t="s">
         <v>447</v>
@@ -12277,7 +12857,7 @@
         <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>394</v>
@@ -12333,7 +12913,7 @@
         <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>372</v>
@@ -12389,7 +12969,7 @@
         <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
         <v>373</v>
@@ -12442,7 +13022,7 @@
         <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>307</v>
@@ -12483,7 +13063,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
         <v>353</v>
@@ -12521,7 +13101,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
         <v>275</v>
@@ -12556,7 +13136,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -12588,7 +13168,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>317</v>
@@ -12620,7 +13200,7 @@
         <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -12652,7 +13232,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>392</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -12678,7 +13258,7 @@
         <v>406</v>
       </c>
       <c r="C16" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="E16" t="s">
         <v>318</v>
@@ -12701,7 +13281,7 @@
         <v>427</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>392</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -12718,7 +13298,7 @@
         <v>420</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>418</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -12735,7 +13315,7 @@
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>297</v>
@@ -12752,7 +13332,7 @@
         <v>402</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -12769,7 +13349,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
         <v>299</v>
@@ -12786,7 +13366,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -12803,7 +13383,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>457</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -12820,7 +13400,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -12834,7 +13414,7 @@
         <v>429</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>457</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -12848,7 +13428,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>425</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -12859,7 +13439,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -12870,7 +13450,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>425</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -12881,7 +13461,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -12892,7 +13472,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -12903,7 +13483,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -12914,7 +13494,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -12925,7 +13505,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -12936,7 +13516,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>331</v>
@@ -12946,6 +13526,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>308</v>
       </c>
@@ -12954,6 +13537,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>262</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8777" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9246" uniqueCount="470">
   <si>
     <t>description</t>
   </si>
@@ -1472,13 +1472,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="281" x14ac:knownFonts="1">
+  <fonts count="296" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3247,8 +3250,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6021,8 +6118,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11136,6 +11386,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11143,7 +11675,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12041,49 +12573,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12468,7 +13045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13680,7 +14257,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54">
@@ -13688,7 +14265,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -13696,7 +14273,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -13704,7 +14281,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -13712,7 +14289,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -13720,7 +14297,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -13728,7 +14305,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -13736,7 +14313,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>446</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -13744,7 +14321,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62">
@@ -13752,7 +14329,7 @@
         <v>375</v>
       </c>
       <c r="U62" t="s">
-        <v>395</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
@@ -13760,7 +14337,7 @@
         <v>376</v>
       </c>
       <c r="U63" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64">
@@ -13768,7 +14345,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65">
@@ -13776,7 +14353,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -13784,7 +14361,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -13792,7 +14369,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -13800,7 +14377,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -13808,7 +14385,7 @@
         <v>416</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -13816,7 +14393,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>464</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -13824,7 +14401,7 @@
         <v>417</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72">
@@ -13832,7 +14409,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -13840,7 +14417,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -13848,7 +14425,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -13856,7 +14433,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -13864,7 +14441,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -13872,7 +14449,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -13880,7 +14457,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>463</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -13888,7 +14465,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80">
@@ -13896,7 +14473,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -13904,7 +14481,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -13912,7 +14489,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -13920,7 +14497,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -13928,7 +14505,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -13936,7 +14513,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86">
@@ -13944,7 +14521,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87">
@@ -13952,7 +14529,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -13960,7 +14537,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -13968,7 +14545,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -13976,7 +14553,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -13984,7 +14561,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -13992,126 +14569,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>389</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>452</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>452</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -47,7 +47,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9246" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9717" uniqueCount="472">
   <si>
     <t>description</t>
   </si>
@@ -1475,13 +1475,19 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="296" x14ac:knownFonts="1">
+  <fonts count="312" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3344,8 +3350,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6271,8 +6378,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11668,6 +11928,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11675,7 +12217,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="339">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12618,49 +13160,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13384,7 +13974,7 @@
         <v>349</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>470</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -13443,7 +14033,7 @@
         <v>460</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -13499,7 +14089,7 @@
         <v>456</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
         <v>316</v>
@@ -13555,7 +14145,7 @@
         <v>329</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
@@ -13608,7 +14198,7 @@
         <v>330</v>
       </c>
       <c r="I9" t="s">
-        <v>396</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
@@ -13649,7 +14239,7 @@
         <v>461</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>396</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -13687,7 +14277,7 @@
         <v>323</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>449</v>
@@ -13722,7 +14312,7 @@
         <v>324</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
         <v>39</v>
@@ -13754,7 +14344,7 @@
         <v>325</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
         <v>40</v>
@@ -13786,7 +14376,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -13815,7 +14405,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>466</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -13841,7 +14431,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -13864,10 +14454,13 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>386</v>
+        <v>85</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
+      </c>
+      <c r="X17" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="18">
@@ -13881,7 +14474,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -13898,7 +14491,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -13915,7 +14508,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -13932,7 +14525,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>448</v>
+        <v>86</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -13949,7 +14542,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -13966,7 +14559,7 @@
         <v>291</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>
@@ -13981,6 +14574,9 @@
       </c>
       <c r="E24" t="s">
         <v>280</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
       </c>
       <c r="U24" t="s">
         <v>113</v>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -20,36 +20,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$24</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9717" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10192" uniqueCount="475">
   <si>
     <t>description</t>
   </si>
@@ -1481,13 +1482,22 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="312" x14ac:knownFonts="1">
+  <fonts count="328" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3451,8 +3461,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6531,8 +6642,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -12210,6 +12474,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12217,7 +12763,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="355">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13205,52 +13751,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="528" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="302" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="534" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="537" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13635,7 +14229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13654,75 +14248,78 @@
         <v>377</v>
       </c>
       <c r="C1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>406</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>427</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>420</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>402</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>429</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -13734,1562 +14331,1571 @@
         <v>378</v>
       </c>
       <c r="C2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>458</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>390</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>436</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>419</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>437</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>407</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>428</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>426</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>387</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>403</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>439</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
         <v>379</v>
       </c>
       <c r="C3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" t="s">
         <v>467</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>371</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>438</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>408</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>422</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>388</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>404</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>370</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>380</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>393</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>459</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>409</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>423</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>405</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>430</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>381</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>468</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>447</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>465</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>470</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>410</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>424</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>431</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>382</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>394</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>460</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>397</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>411</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>453</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>432</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>383</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>372</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>456</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>421</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>412</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>454</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>433</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>384</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>373</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>81</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>246</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>413</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>434</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>385</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>247</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>414</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>364</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>461</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>396</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>440</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>248</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>415</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>449</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>249</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>42</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>250</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>317</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>82</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>255</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>83</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>251</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>466</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>252</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>391</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>253</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>427</v>
-      </c>
-      <c r="C17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" t="s">
         <v>392</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>106</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>420</v>
-      </c>
-      <c r="C18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D18" t="s">
         <v>418</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>386</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>44</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>402</v>
-      </c>
-      <c r="C20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>398</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D21" t="s">
         <v>257</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>86</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>448</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>322</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>46</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>457</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>425</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>374</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>375</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>376</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>416</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>417</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>435</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10192" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10668" uniqueCount="477">
   <si>
     <t>description</t>
   </si>
@@ -1491,13 +1491,19 @@
   <si>
     <t>sendTextMail(profile,to,subject,body)</t>
   </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="328" x14ac:knownFonts="1">
+  <fonts count="344" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3562,8 +3568,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6795,8 +6902,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12756,6 +13016,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12763,7 +13305,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="371">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13799,52 +14341,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="315" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="555" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="561" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="564" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14229,7 +14819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14331,7 +14921,7 @@
         <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -15443,7 +16033,7 @@
         <v>357</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52">
@@ -15451,7 +16041,7 @@
         <v>332</v>
       </c>
       <c r="V52" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -15459,7 +16049,7 @@
         <v>269</v>
       </c>
       <c r="V53" t="s">
-        <v>469</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
@@ -15467,7 +16057,7 @@
         <v>293</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55">
@@ -15475,7 +16065,7 @@
         <v>294</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -15483,7 +16073,7 @@
         <v>295</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -15491,7 +16081,7 @@
         <v>304</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -15499,7 +16089,7 @@
         <v>313</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -15507,7 +16097,7 @@
         <v>338</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -15515,7 +16105,7 @@
         <v>310</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -15523,7 +16113,7 @@
         <v>311</v>
       </c>
       <c r="V61" t="s">
-        <v>446</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -15531,7 +16121,7 @@
         <v>375</v>
       </c>
       <c r="V62" t="s">
-        <v>215</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63">
@@ -15539,7 +16129,7 @@
         <v>376</v>
       </c>
       <c r="V63" t="s">
-        <v>395</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
@@ -15547,7 +16137,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65">
@@ -15555,7 +16145,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66">
@@ -15563,7 +16153,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -15571,7 +16161,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -15579,7 +16169,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -15587,7 +16177,7 @@
         <v>416</v>
       </c>
       <c r="V69" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -15595,7 +16185,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -15603,7 +16193,7 @@
         <v>417</v>
       </c>
       <c r="V71" t="s">
-        <v>464</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
@@ -15611,7 +16201,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73">
@@ -15619,7 +16209,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -15627,7 +16217,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -15635,7 +16225,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -15643,7 +16233,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -15651,7 +16241,7 @@
         <v>435</v>
       </c>
       <c r="V77" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -15659,7 +16249,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -15667,7 +16257,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>463</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -15675,7 +16265,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81">
@@ -15683,7 +16273,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -15691,7 +16281,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -15699,7 +16289,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84">
@@ -15707,7 +16297,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -15715,7 +16305,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -15723,7 +16313,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87">
@@ -15731,7 +16321,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>205</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88">
@@ -15739,7 +16329,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -15747,7 +16337,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -15755,7 +16345,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -15763,7 +16353,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -15771,131 +16361,136 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>389</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>452</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>164</v>
+        <v>452</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -27,7 +27,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10668" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12100" uniqueCount="480">
   <si>
     <t>description</t>
   </si>
@@ -1497,13 +1497,22 @@
   <si>
     <t>clickWithKeys(locator,keys)</t>
   </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="344" x14ac:knownFonts="1">
+  <fonts count="392" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3669,8 +3678,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7055,8 +7367,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -13298,6 +14069,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13305,7 +14922,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="371">
+  <cellXfs count="419">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14389,52 +16006,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="330" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="582" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="588" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="591" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="346" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="347" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="609" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="350" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="615" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="618" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="362" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="363" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="366" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14939,7 +16700,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>479</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -15022,7 +16783,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -15093,7 +16854,7 @@
         <v>459</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>239</v>
@@ -15164,7 +16925,7 @@
         <v>465</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>470</v>
@@ -15224,6 +16985,9 @@
       </c>
       <c r="G6" t="s">
         <v>460</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12100" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12578" uniqueCount="481">
   <si>
     <t>description</t>
   </si>
@@ -1506,13 +1506,16 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="392" x14ac:knownFonts="1">
+  <fonts count="408" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3981,8 +3984,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7826,8 +7930,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -14915,6 +15172,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14922,7 +15461,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="419">
+  <cellXfs count="435">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16150,52 +16689,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="378" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="379" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="381" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16580,7 +17167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17973,7 +18560,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74">
@@ -17981,7 +18568,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -17989,7 +18576,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -17997,7 +18584,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -18005,7 +18592,7 @@
         <v>435</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -18013,7 +18600,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -18021,7 +18608,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -18029,7 +18616,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>463</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -18037,7 +18624,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82">
@@ -18045,7 +18632,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -18053,7 +18640,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -18061,7 +18648,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -18069,7 +18656,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -18077,7 +18664,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -18085,7 +18672,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88">
@@ -18093,7 +18680,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89">
@@ -18101,7 +18688,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -18109,7 +18696,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -18117,7 +18704,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -18125,136 +18712,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>389</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>452</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>164</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12578" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14017" uniqueCount="484">
   <si>
     <t>description</t>
   </si>
@@ -1509,13 +1509,22 @@
   <si>
     <t>openIgnoreTimeout(url)</t>
   </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="408" x14ac:knownFonts="1">
+  <fonts count="456" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4085,8 +4094,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="787">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8083,8 +8395,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="731">
+  <borders count="815">
     <border>
       <left/>
       <right/>
@@ -15454,6 +16225,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15461,7 +17078,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="435">
+  <cellXfs count="483">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16737,52 +18354,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="394" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="395" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="397" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="410" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="411" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="413" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="414" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="426" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="427" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="429" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="430" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18035,7 +19796,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>483</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -18052,7 +19813,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -18069,7 +19830,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -18086,7 +19847,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>448</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -18103,7 +19864,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -18120,7 +19881,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -18136,6 +19897,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -18170,7 +19934,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -18181,7 +19945,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>482</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -18192,7 +19956,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>425</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -18203,7 +19967,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -18214,7 +19978,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -18225,7 +19989,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -18236,7 +20000,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -18247,7 +20011,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -18258,7 +20022,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -18268,6 +20032,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -18276,6 +20043,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14017" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14982" uniqueCount="486">
   <si>
     <t>description</t>
   </si>
@@ -1518,13 +1518,19 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="456" x14ac:knownFonts="1">
+  <fonts count="488" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4397,8 +4403,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="787">
+  <fills count="841">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8854,8 +9062,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="815">
+  <borders count="871">
     <border>
       <left/>
       <right/>
@@ -17071,6 +17585,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17078,7 +18156,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="483">
+  <cellXfs count="515">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18498,52 +19576,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="442" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="443" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="445" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="446" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="789" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="792" fontId="458" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="795" fontId="459" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="798" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="461" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="462" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="816" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="819" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="822" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19585,7 +20759,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -19620,7 +20794,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>449</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -19652,7 +20826,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -19684,7 +20858,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -19712,6 +20886,9 @@
       <c r="J15" t="s">
         <v>466</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -19737,6 +20914,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>253</v>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14982" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15468" uniqueCount="489">
   <si>
     <t>description</t>
   </si>
@@ -1524,13 +1524,22 @@
   <si>
     <t>beautify(json,var)</t>
   </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="488" x14ac:knownFonts="1">
+  <fonts count="504" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4605,8 +4614,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="841">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9368,8 +9478,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="871">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -18149,6 +18412,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18156,7 +18701,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="515">
+  <cellXfs count="531">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19672,52 +20217,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="471" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="816" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="819" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="819" fontId="474" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="822" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="822" fontId="475" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="477" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="478" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="481" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="487" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20102,7 +20695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20701,7 +21294,7 @@
         <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10">
@@ -20739,7 +21332,7 @@
         <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>237</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11">
@@ -20774,7 +21367,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -20808,6 +21401,9 @@
       <c r="Y12" t="s">
         <v>192</v>
       </c>
+      <c r="AA12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -20840,6 +21436,9 @@
       <c r="Y13" t="s">
         <v>193</v>
       </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -21430,7 +22029,7 @@
         <v>376</v>
       </c>
       <c r="V63" t="s">
-        <v>215</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64">
@@ -21438,7 +22037,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>395</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -21446,7 +22045,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66">
@@ -21454,7 +22053,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67">
@@ -21462,7 +22061,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -21470,7 +22069,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -21478,7 +22077,7 @@
         <v>416</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -21486,7 +22085,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -21494,7 +22093,7 @@
         <v>417</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -21502,7 +22101,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>464</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -21510,7 +22109,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74">
@@ -21518,7 +22117,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75">
@@ -21526,7 +22125,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -21534,7 +22133,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -21542,7 +22141,7 @@
         <v>435</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -21550,7 +22149,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -21558,7 +22157,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -21566,7 +22165,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -21574,7 +22173,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>463</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -21582,7 +22181,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
     </row>
     <row r="83">
@@ -21590,7 +22189,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -21598,7 +22197,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -21606,7 +22205,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -21614,7 +22213,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -21622,7 +22221,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -21630,7 +22229,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89">
@@ -21638,7 +22237,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90">
@@ -21646,7 +22245,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -21654,7 +22253,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -21662,141 +22261,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>389</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>452</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -26,31 +26,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15468" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15962" uniqueCount="497">
   <si>
     <t>description</t>
   </si>
@@ -1533,13 +1534,37 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="504" x14ac:knownFonts="1">
+  <fonts count="520" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4715,8 +4740,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="895">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9631,8 +9757,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="927">
     <border>
       <left/>
       <right/>
@@ -18694,6 +18973,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18701,7 +19262,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="531">
+  <cellXfs count="547">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20265,52 +20826,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="490" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="849" fontId="491" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="493" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="494" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20695,7 +21304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20744,48 +21353,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>489</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>406</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>427</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>420</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>402</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>429</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -20827,48 +21439,51 @@
         <v>436</v>
       </c>
       <c r="M2" t="s">
+        <v>492</v>
+      </c>
+      <c r="N2" t="s">
         <v>419</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>437</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>407</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>428</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>426</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>387</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>403</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>439</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -20895,7 +21510,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>490</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -20909,43 +21524,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>493</v>
+      </c>
+      <c r="O3" t="s">
         <v>438</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>408</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>422</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>388</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>404</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>370</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -20968,6 +21586,9 @@
       <c r="G4" t="s">
         <v>459</v>
       </c>
+      <c r="H4" t="s">
+        <v>491</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -20980,43 +21601,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>494</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>409</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>423</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>405</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>430</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -21048,40 +21672,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>410</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>424</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>431</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -21110,37 +21734,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>397</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>411</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>453</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>432</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -21166,37 +21790,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>421</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>412</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>454</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>433</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -21222,34 +21846,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>413</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>434</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -21275,25 +21899,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>414</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>487</v>
       </c>
     </row>
@@ -21316,22 +21940,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>440</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>415</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>488</v>
       </c>
     </row>
@@ -21354,19 +21978,19 @@
       <c r="L11" t="s">
         <v>485</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -21389,25 +22013,25 @@
       <c r="L12" t="s">
         <v>449</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>489</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -21424,25 +22048,25 @@
       <c r="L13" t="s">
         <v>484</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -21459,22 +22083,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -21488,22 +22112,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>391</v>
@@ -21517,19 +22141,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>392</v>
@@ -21540,16 +22164,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="D18" t="s">
         <v>418</v>
@@ -21560,13 +22184,13 @@
       <c r="J18" t="s">
         <v>386</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -21577,13 +22201,13 @@
       <c r="J19" t="s">
         <v>483</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -21594,13 +22218,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -21611,13 +22235,13 @@
       <c r="J21" t="s">
         <v>398</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>402</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -21628,13 +22252,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -21645,13 +22269,13 @@
       <c r="J23" t="s">
         <v>448</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -21662,13 +22286,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>457</v>
@@ -21679,13 +22303,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -21693,13 +22317,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>429</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -21707,18 +22331,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>481</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -21729,7 +22356,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -21740,7 +22367,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -21751,7 +22378,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -21762,7 +22389,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -21773,7 +22400,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -21784,7 +22411,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -21795,7 +22422,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -21806,7 +22433,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -21817,7 +22444,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>441</v>
       </c>
     </row>
@@ -21828,7 +22455,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>399</v>
       </c>
     </row>
@@ -21836,7 +22463,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -21844,7 +22471,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -21852,7 +22479,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -21860,7 +22487,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -21868,7 +22495,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -21876,7 +22503,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -21884,7 +22511,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>450</v>
       </c>
     </row>
@@ -21892,7 +22519,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -21900,7 +22527,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -21908,7 +22535,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -21916,7 +22543,7 @@
       <c r="F49" t="s">
         <v>374</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -21924,7 +22551,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -21932,475 +22559,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>476</v>
+      <c r="W51" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>469</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>375</v>
       </c>
-      <c r="V62" t="s">
-        <v>446</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>376</v>
       </c>
-      <c r="V63" t="s">
-        <v>486</v>
+      <c r="W63" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>395</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>451</v>
+      <c r="W66" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>416</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>417</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>464</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>480</v>
+      <c r="W74" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>435</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>463</v>
+      <c r="W82" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>443</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>445</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15962" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16456" uniqueCount="498">
   <si>
     <t>description</t>
   </si>
@@ -1558,13 +1558,16 @@
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
   </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="520" x14ac:knownFonts="1">
+  <fonts count="536" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4841,8 +4844,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="895">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9910,8 +10014,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="927">
+  <borders count="955">
     <border>
       <left/>
       <right/>
@@ -19255,6 +19512,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19262,7 +19801,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="547">
+  <cellXfs count="563">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20874,52 +21413,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="870" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="505" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="873" fontId="506" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="876" fontId="507" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="879" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="509" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="510" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="513" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="519" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22236,7 +22823,7 @@
         <v>398</v>
       </c>
       <c r="W21" t="s">
-        <v>110</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22">

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16456" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16950" uniqueCount="498">
   <si>
     <t>description</t>
   </si>
@@ -1567,7 +1567,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="536" x14ac:knownFonts="1">
+  <fonts count="552" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4945,8 +4945,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="922">
+  <fills count="949">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10167,8 +10268,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="955">
+  <borders count="983">
     <border>
       <left/>
       <right/>
@@ -19794,6 +20048,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19801,7 +20337,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="563">
+  <cellXfs count="579">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21461,52 +21997,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="897" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="521" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="900" fontId="522" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="903" fontId="523" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="906" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="525" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="526" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="912" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="915" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="533" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="534" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="535" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -20,38 +20,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16950" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18438" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1561,13 +1562,28 @@
   <si>
     <t>assertIENativeMode()</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="552" x14ac:knownFonts="1">
+  <fonts count="600" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5046,8 +5062,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="949">
+  <fills count="1030">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10421,8 +10740,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="983">
+  <borders count="1067">
     <border>
       <left/>
       <right/>
@@ -20330,6 +21108,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20337,7 +21961,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="579">
+  <cellXfs count="627">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22045,52 +23669,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="924" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="927" fontId="538" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="930" fontId="539" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="933" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="541" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="542" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="939" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="942" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="551" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="951" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="954" fontId="554" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="957" fontId="555" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="960" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="557" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="558" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="966" fontId="560" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="969" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="978" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="981" fontId="570" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="984" fontId="571" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="987" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="573" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="574" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="993" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="996" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="1005" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="1008" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="1011" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="1014" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1020" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1023" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22475,7 +24243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22497,78 +24265,81 @@
         <v>472</v>
       </c>
       <c r="D1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>489</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>406</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>427</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>420</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>402</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>429</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22583,78 +24354,81 @@
         <v>475</v>
       </c>
       <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>458</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>479</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>390</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>436</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>492</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>419</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>437</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>407</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>428</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>426</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>387</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>403</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>439</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -22669,1546 +24443,1558 @@
         <v>474</v>
       </c>
       <c r="D3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" t="s">
         <v>467</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>371</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>490</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>493</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>438</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>408</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>422</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>388</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>404</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>370</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
         <v>380</v>
       </c>
       <c r="D4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>393</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>459</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>491</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>494</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>409</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>423</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>405</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>430</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>381</v>
       </c>
       <c r="D5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E5" t="s">
         <v>468</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>447</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>465</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>470</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>410</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>424</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>431</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>382</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>394</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>460</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>397</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>411</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>453</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>432</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>383</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>372</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>456</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>421</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>412</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>454</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>433</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>384</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>373</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>413</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>434</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>385</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>414</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" t="s">
+        <v>461</v>
+      </c>
+      <c r="K10" t="s">
+        <v>396</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>248</v>
+      </c>
+      <c r="S10" t="s">
+        <v>415</v>
+      </c>
+      <c r="X10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>316</v>
+      <c r="E11" t="s">
+        <v>256</v>
       </c>
-      <c r="F10" t="s">
-        <v>353</v>
+      <c r="G11" t="s">
+        <v>275</v>
       </c>
-      <c r="G10" t="s">
-        <v>461</v>
+      <c r="H11" t="s">
+        <v>323</v>
       </c>
-      <c r="J10" t="s">
-        <v>396</v>
+      <c r="K11" t="s">
+        <v>17</v>
       </c>
-      <c r="L10" t="s">
-        <v>36</v>
+      <c r="M11" t="s">
+        <v>485</v>
       </c>
-      <c r="O10" t="s">
-        <v>440</v>
+      <c r="P11" t="s">
+        <v>94</v>
       </c>
-      <c r="P10" t="s">
-        <v>248</v>
+      <c r="Q11" t="s">
+        <v>249</v>
       </c>
-      <c r="R10" t="s">
-        <v>415</v>
+      <c r="X11" t="s">
+        <v>259</v>
       </c>
-      <c r="W10" t="s">
-        <v>258</v>
+      <c r="AA11" t="s">
+        <v>260</v>
       </c>
-      <c r="Z10" t="s">
-        <v>191</v>
+      <c r="AC11" t="s">
+        <v>236</v>
       </c>
-      <c r="AB10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>334</v>
       </c>
-      <c r="D11" t="s">
-        <v>256</v>
+      <c r="E12" t="s">
+        <v>320</v>
       </c>
-      <c r="F11" t="s">
-        <v>275</v>
+      <c r="G12" t="s">
+        <v>264</v>
       </c>
-      <c r="G11" t="s">
-        <v>323</v>
+      <c r="H12" t="s">
+        <v>324</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
+      <c r="K12" t="s">
+        <v>42</v>
       </c>
-      <c r="L11" t="s">
-        <v>485</v>
+      <c r="M12" t="s">
+        <v>449</v>
       </c>
-      <c r="O11" t="s">
-        <v>94</v>
+      <c r="P12" t="s">
+        <v>41</v>
       </c>
-      <c r="P11" t="s">
-        <v>249</v>
+      <c r="Q12" t="s">
+        <v>250</v>
       </c>
-      <c r="W11" t="s">
-        <v>259</v>
+      <c r="X12" t="s">
+        <v>103</v>
       </c>
-      <c r="Z11" t="s">
-        <v>260</v>
+      <c r="AA12" t="s">
+        <v>192</v>
       </c>
-      <c r="AB11" t="s">
-        <v>236</v>
+      <c r="AC12" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="13">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>320</v>
+      <c r="E13" t="s">
+        <v>342</v>
       </c>
-      <c r="F12" t="s">
-        <v>264</v>
+      <c r="G13" t="s">
+        <v>317</v>
       </c>
-      <c r="G12" t="s">
-        <v>324</v>
+      <c r="H13" t="s">
+        <v>325</v>
       </c>
-      <c r="J12" t="s">
-        <v>42</v>
+      <c r="K13" t="s">
+        <v>82</v>
       </c>
-      <c r="L12" t="s">
-        <v>449</v>
+      <c r="M13" t="s">
+        <v>484</v>
       </c>
-      <c r="O12" t="s">
-        <v>41</v>
+      <c r="P13" t="s">
+        <v>95</v>
       </c>
-      <c r="P12" t="s">
-        <v>250</v>
+      <c r="Q13" t="s">
+        <v>255</v>
       </c>
-      <c r="W12" t="s">
-        <v>103</v>
+      <c r="X13" t="s">
+        <v>327</v>
       </c>
-      <c r="Z12" t="s">
-        <v>192</v>
+      <c r="AA13" t="s">
+        <v>193</v>
       </c>
-      <c r="AB12" t="s">
-        <v>237</v>
+      <c r="AC13" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>489</v>
       </c>
-      <c r="D13" t="s">
-        <v>342</v>
+      <c r="E14" t="s">
+        <v>37</v>
       </c>
-      <c r="F13" t="s">
-        <v>317</v>
+      <c r="G14" t="s">
+        <v>265</v>
       </c>
-      <c r="G13" t="s">
-        <v>325</v>
+      <c r="H14" t="s">
+        <v>326</v>
       </c>
-      <c r="J13" t="s">
-        <v>82</v>
+      <c r="K14" t="s">
+        <v>83</v>
       </c>
-      <c r="L13" t="s">
-        <v>484</v>
+      <c r="M14" t="s">
+        <v>39</v>
       </c>
-      <c r="O13" t="s">
-        <v>95</v>
+      <c r="P14" t="s">
+        <v>96</v>
       </c>
-      <c r="P13" t="s">
-        <v>255</v>
+      <c r="Q14" t="s">
+        <v>251</v>
       </c>
-      <c r="W13" t="s">
-        <v>327</v>
+      <c r="X14" t="s">
+        <v>104</v>
       </c>
-      <c r="Z13" t="s">
-        <v>193</v>
+      <c r="AA14" t="s">
+        <v>194</v>
       </c>
-      <c r="AB13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>197</v>
       </c>
-      <c r="D14" t="s">
-        <v>37</v>
+      <c r="E15" t="s">
+        <v>60</v>
       </c>
-      <c r="F14" t="s">
-        <v>265</v>
+      <c r="G15" t="s">
+        <v>266</v>
       </c>
-      <c r="G14" t="s">
-        <v>326</v>
+      <c r="K15" t="s">
+        <v>466</v>
       </c>
-      <c r="J14" t="s">
-        <v>83</v>
+      <c r="M15" t="s">
+        <v>40</v>
       </c>
-      <c r="L14" t="s">
-        <v>39</v>
+      <c r="P15" t="s">
+        <v>97</v>
       </c>
-      <c r="O14" t="s">
-        <v>96</v>
+      <c r="Q15" t="s">
+        <v>252</v>
       </c>
-      <c r="P14" t="s">
-        <v>251</v>
+      <c r="X15" t="s">
+        <v>105</v>
       </c>
-      <c r="W14" t="s">
-        <v>104</v>
+      <c r="AA15" t="s">
+        <v>195</v>
       </c>
-      <c r="Z14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>60</v>
+      <c r="E16" t="s">
+        <v>391</v>
       </c>
-      <c r="F15" t="s">
-        <v>266</v>
+      <c r="G16" t="s">
+        <v>318</v>
       </c>
-      <c r="J15" t="s">
-        <v>466</v>
+      <c r="K16" t="s">
+        <v>84</v>
       </c>
-      <c r="L15" t="s">
-        <v>40</v>
+      <c r="M16" t="s">
+        <v>43</v>
       </c>
-      <c r="O15" t="s">
-        <v>97</v>
+      <c r="Q16" t="s">
+        <v>253</v>
       </c>
-      <c r="P15" t="s">
-        <v>252</v>
+      <c r="X16" t="s">
+        <v>76</v>
       </c>
-      <c r="W15" t="s">
-        <v>105</v>
+      <c r="AA16" t="s">
+        <v>196</v>
       </c>
-      <c r="Z15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>240</v>
       </c>
-      <c r="D16" t="s">
-        <v>391</v>
+      <c r="E17" t="s">
+        <v>392</v>
       </c>
-      <c r="F16" t="s">
-        <v>318</v>
+      <c r="G17" t="s">
+        <v>90</v>
       </c>
-      <c r="J16" t="s">
-        <v>84</v>
+      <c r="K17" t="s">
+        <v>85</v>
       </c>
-      <c r="L16" t="s">
-        <v>43</v>
+      <c r="X17" t="s">
+        <v>106</v>
       </c>
-      <c r="P16" t="s">
-        <v>253</v>
+      <c r="AA17" t="s">
+        <v>471</v>
       </c>
-      <c r="W16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
-        <v>392</v>
+      <c r="E18" t="s">
+        <v>418</v>
       </c>
-      <c r="F17" t="s">
-        <v>90</v>
+      <c r="G18" t="s">
+        <v>91</v>
       </c>
-      <c r="J17" t="s">
-        <v>85</v>
+      <c r="K18" t="s">
+        <v>386</v>
       </c>
-      <c r="W17" t="s">
-        <v>106</v>
+      <c r="X18" t="s">
+        <v>107</v>
       </c>
-      <c r="Z17" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>406</v>
       </c>
-      <c r="D18" t="s">
-        <v>418</v>
+      <c r="E19" t="s">
+        <v>61</v>
       </c>
-      <c r="F18" t="s">
-        <v>91</v>
+      <c r="G19" t="s">
+        <v>297</v>
       </c>
-      <c r="J18" t="s">
-        <v>386</v>
+      <c r="K19" t="s">
+        <v>483</v>
       </c>
-      <c r="W18" t="s">
-        <v>107</v>
+      <c r="X19" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>427</v>
       </c>
-      <c r="D19" t="s">
-        <v>61</v>
+      <c r="E20" t="s">
+        <v>62</v>
       </c>
-      <c r="F19" t="s">
-        <v>297</v>
+      <c r="G20" t="s">
+        <v>298</v>
       </c>
-      <c r="J19" t="s">
-        <v>483</v>
+      <c r="K20" t="s">
+        <v>44</v>
       </c>
-      <c r="W19" t="s">
-        <v>108</v>
+      <c r="X20" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>420</v>
       </c>
-      <c r="D20" t="s">
-        <v>62</v>
+      <c r="E21" t="s">
+        <v>257</v>
       </c>
-      <c r="F20" t="s">
-        <v>298</v>
+      <c r="G21" t="s">
+        <v>299</v>
       </c>
-      <c r="J20" t="s">
-        <v>44</v>
+      <c r="K21" t="s">
+        <v>398</v>
       </c>
-      <c r="W20" t="s">
-        <v>109</v>
+      <c r="X21" t="s">
+        <v>497</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>358</v>
       </c>
-      <c r="D21" t="s">
-        <v>257</v>
+      <c r="E22" t="s">
+        <v>63</v>
       </c>
-      <c r="F21" t="s">
-        <v>299</v>
+      <c r="G22" t="s">
+        <v>300</v>
       </c>
-      <c r="J21" t="s">
-        <v>398</v>
+      <c r="K22" t="s">
+        <v>86</v>
       </c>
-      <c r="W21" t="s">
-        <v>497</v>
+      <c r="X22" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>402</v>
       </c>
-      <c r="D22" t="s">
-        <v>63</v>
+      <c r="E23" t="s">
+        <v>322</v>
       </c>
-      <c r="F22" t="s">
-        <v>300</v>
+      <c r="G23" t="s">
+        <v>291</v>
       </c>
-      <c r="J22" t="s">
-        <v>86</v>
+      <c r="K23" t="s">
+        <v>448</v>
       </c>
-      <c r="W22" t="s">
-        <v>111</v>
+      <c r="X23" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
-        <v>322</v>
+      <c r="E24" t="s">
+        <v>64</v>
       </c>
-      <c r="F23" t="s">
-        <v>291</v>
+      <c r="G24" t="s">
+        <v>280</v>
       </c>
-      <c r="J23" t="s">
-        <v>448</v>
+      <c r="K24" t="s">
+        <v>45</v>
       </c>
-      <c r="W23" t="s">
-        <v>112</v>
+      <c r="X24" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="25">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="D24" t="s">
-        <v>64</v>
+      <c r="E25" t="s">
+        <v>457</v>
       </c>
-      <c r="F24" t="s">
-        <v>280</v>
+      <c r="G25" t="s">
+        <v>77</v>
       </c>
-      <c r="J24" t="s">
-        <v>45</v>
+      <c r="K25" t="s">
+        <v>46</v>
       </c>
-      <c r="W24" t="s">
-        <v>113</v>
+      <c r="X25" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
-        <v>457</v>
+      <c r="E26" t="s">
+        <v>226</v>
       </c>
-      <c r="F25" t="s">
-        <v>77</v>
+      <c r="G26" t="s">
+        <v>283</v>
       </c>
-      <c r="J25" t="s">
-        <v>46</v>
+      <c r="X26" t="s">
+        <v>115</v>
       </c>
-      <c r="W25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="D26" t="s">
-        <v>226</v>
+      <c r="E27" t="s">
+        <v>227</v>
       </c>
-      <c r="F26" t="s">
-        <v>283</v>
+      <c r="G27" t="s">
+        <v>267</v>
       </c>
-      <c r="W26" t="s">
-        <v>115</v>
+      <c r="X27" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
+    <row r="28">
+      <c r="A28" t="s">
         <v>429</v>
       </c>
-      <c r="D27" t="s">
-        <v>227</v>
+      <c r="E28" t="s">
+        <v>481</v>
       </c>
-      <c r="F27" t="s">
-        <v>267</v>
+      <c r="G28" t="s">
+        <v>284</v>
       </c>
-      <c r="W27" t="s">
-        <v>328</v>
+      <c r="X28" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>481</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>482</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>425</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>374</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>375</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>376</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>416</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>417</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>435</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -49,7 +49,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18438" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18943" uniqueCount="508">
   <si>
     <t>description</t>
   </si>
@@ -1577,13 +1577,28 @@
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
   </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="600" x14ac:knownFonts="1">
+  <fonts count="616" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5365,8 +5380,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1030">
+  <fills count="1057">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11199,8 +11315,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1067">
+  <borders count="1095">
     <border>
       <left/>
       <right/>
@@ -21954,6 +22223,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -21961,7 +22512,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="627">
+  <cellXfs count="643">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23813,52 +24364,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="583" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="584" fillId="1005" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1005" fontId="584" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="585" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="586" fillId="1008" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1008" fontId="586" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="587" fillId="1011" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1011" fontId="587" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="588" fillId="1014" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1014" fontId="588" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="589" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="590" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="590" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="591" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="592" fillId="1020" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1020" fontId="592" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="593" fillId="1023" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1023" fontId="593" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="594" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="595" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="596" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="597" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="597" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="598" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="599" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1032" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1035" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="1038" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1041" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1047" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1050" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24429,7 +25028,7 @@
         <v>439</v>
       </c>
       <c r="AC2" t="s">
-        <v>229</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3">
@@ -24512,7 +25111,7 @@
         <v>185</v>
       </c>
       <c r="AC3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
@@ -24592,7 +25191,7 @@
         <v>430</v>
       </c>
       <c r="AC4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
@@ -24660,7 +25259,7 @@
         <v>431</v>
       </c>
       <c r="AC5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6">
@@ -24719,7 +25318,7 @@
         <v>432</v>
       </c>
       <c r="AC6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7">
@@ -24775,7 +25374,7 @@
         <v>433</v>
       </c>
       <c r="AC7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
@@ -24828,7 +25427,7 @@
         <v>434</v>
       </c>
       <c r="AC8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
@@ -24872,7 +25471,7 @@
         <v>190</v>
       </c>
       <c r="AC9" t="s">
-        <v>487</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
@@ -24910,7 +25509,7 @@
         <v>191</v>
       </c>
       <c r="AC10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11">
@@ -24945,7 +25544,7 @@
         <v>260</v>
       </c>
       <c r="AC11" t="s">
-        <v>236</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12">
@@ -24980,7 +25579,7 @@
         <v>192</v>
       </c>
       <c r="AC12" t="s">
-        <v>237</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13">
@@ -25015,7 +25614,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>238</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14">
@@ -25049,6 +25648,9 @@
       <c r="AA14" t="s">
         <v>194</v>
       </c>
+      <c r="AC14" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -25078,6 +25680,9 @@
       <c r="AA15" t="s">
         <v>195</v>
       </c>
+      <c r="AC15" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -25104,6 +25709,9 @@
       <c r="AA16" t="s">
         <v>196</v>
       </c>
+      <c r="AC16" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -25124,6 +25732,9 @@
       <c r="AA17" t="s">
         <v>471</v>
       </c>
+      <c r="AC17" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -25140,6 +25751,9 @@
       </c>
       <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18943" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19452" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1592,13 +1592,25 @@
   <si>
     <t>replace(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="616" x14ac:knownFonts="1">
+  <fonts count="632" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5481,8 +5493,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1057">
+  <fills count="1084">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11468,8 +11581,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1095">
+  <borders count="1123">
     <border>
       <left/>
       <right/>
@@ -22505,6 +22771,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -22512,7 +23060,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="643">
+  <cellXfs count="659">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24412,52 +24960,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="599" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="1032" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1032" fontId="600" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="601" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="602" fillId="1035" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1035" fontId="602" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="603" fillId="1038" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1038" fontId="603" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="604" fillId="1041" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1041" fontId="604" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="605" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="606" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="606" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="607" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="608" fillId="1047" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1047" fontId="608" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="1050" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1050" fontId="609" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="610" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1053" fontId="610" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1053" fontId="611" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="612" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="613" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="614" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1059" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1062" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1065" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1068" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1074" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1077" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24842,7 +25438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25614,7 +26210,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14">
@@ -25649,7 +26245,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15">
@@ -25681,7 +26277,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16">
@@ -25710,7 +26306,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17">
@@ -25733,7 +26329,7 @@
         <v>471</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18">
@@ -25753,7 +26349,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19">
@@ -25772,6 +26368,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -25789,6 +26388,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -25806,6 +26408,9 @@
       <c r="X21" t="s">
         <v>497</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -26355,7 +26960,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80">
@@ -26363,7 +26968,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -26371,7 +26976,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -26379,7 +26984,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>496</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -26387,7 +26992,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84">
@@ -26395,7 +27000,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>463</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -26403,7 +27008,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86">
@@ -26411,7 +27016,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -26419,7 +27024,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -26427,7 +27032,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -26435,7 +27040,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -26443,7 +27048,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -26451,7 +27056,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92">
@@ -26459,156 +27064,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="X93" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="93">
-      <c r="X93" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="94">
-      <c r="X94" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="95">
-      <c r="X95" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="96">
-      <c r="X96" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="97">
-      <c r="X97" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="98">
-      <c r="X98" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99">
-      <c r="X99" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="100">
-      <c r="X100" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101">
-      <c r="X101" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102">
-      <c r="X102" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="103">
-      <c r="X103" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104">
-      <c r="X104" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105">
-      <c r="X105" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106">
-      <c r="X106" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107">
-      <c r="X107" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="108">
-      <c r="X108" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109">
-      <c r="X109" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="110">
-      <c r="X110" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111">
-      <c r="X111" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112">
-      <c r="X112" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113">
-      <c r="X113" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="114">
-      <c r="X114" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="115">
-      <c r="X115" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="116">
-      <c r="X116" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="117">
-      <c r="X117" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="118">
-      <c r="X118" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119">
-      <c r="X119" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="120">
-      <c r="X120" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="121">
-      <c r="X121" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="122">
-      <c r="X122" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -35,7 +35,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19452" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20473" uniqueCount="515">
   <si>
     <t>description</t>
   </si>
@@ -1604,13 +1604,22 @@
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="632" x14ac:knownFonts="1">
+  <fonts count="664" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5594,8 +5603,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1084">
+  <fills count="1138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11734,8 +11945,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1123">
+  <borders count="1179">
     <border>
       <left/>
       <right/>
@@ -23053,6 +23570,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23060,7 +24141,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="659">
+  <cellXfs count="691">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25008,52 +26089,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="615" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="1059" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1059" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="617" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="618" fillId="1062" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1062" fontId="618" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="1065" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1065" fontId="619" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="1068" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1068" fontId="620" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="621" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="622" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="623" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="1074" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1074" fontId="624" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="1077" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1077" fontId="625" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="626" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1080" fontId="626" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1080" fontId="627" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="628" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="629" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="630" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="631" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1086" fontId="632" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="633" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1089" fontId="634" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1092" fontId="635" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1095" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="637" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="638" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="639" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1101" fontId="640" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1104" fontId="641" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1107" fontId="642" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1107" fontId="643" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="644" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="645" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="646" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="647" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1113" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1116" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1119" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1122" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1128" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1131" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25438,7 +26615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26265,7 +27442,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>512</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -26296,6 +27473,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>513</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -26323,7 +27503,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>514</v>
       </c>
       <c r="AA17" t="s">
         <v>471</v>
@@ -26346,7 +27526,7 @@
         <v>386</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>511</v>
@@ -26366,7 +27546,7 @@
         <v>483</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -26386,7 +27566,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -26406,7 +27586,7 @@
         <v>398</v>
       </c>
       <c r="X21" t="s">
-        <v>497</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -26426,7 +27606,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23">
@@ -26443,7 +27623,7 @@
         <v>448</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -26460,7 +27640,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -26477,7 +27657,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -26491,7 +27671,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -26505,7 +27685,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -26519,7 +27699,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -26533,7 +27713,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -26544,7 +27724,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -26555,7 +27735,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -26566,7 +27746,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -26577,7 +27757,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -26588,7 +27768,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -26599,7 +27779,7 @@
         <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -26610,7 +27790,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -26621,7 +27801,7 @@
         <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -26632,7 +27812,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39">
@@ -26640,7 +27820,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
@@ -26648,7 +27828,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -26656,7 +27836,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -26664,7 +27844,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -26672,7 +27852,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -26680,7 +27860,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -26688,7 +27868,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>450</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -26696,7 +27876,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47">
@@ -26704,7 +27884,7 @@
         <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -26712,7 +27892,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -26720,7 +27900,7 @@
         <v>374</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -26728,7 +27908,7 @@
         <v>303</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -26736,7 +27916,7 @@
         <v>357</v>
       </c>
       <c r="X51" t="s">
-        <v>495</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -26744,7 +27924,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53">
@@ -26752,7 +27932,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54">
@@ -26760,7 +27940,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -26768,7 +27948,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>469</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
@@ -26776,7 +27956,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57">
@@ -26784,7 +27964,7 @@
         <v>304</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -26792,7 +27972,7 @@
         <v>313</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -26800,7 +27980,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -26808,7 +27988,7 @@
         <v>310</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -26816,7 +27996,7 @@
         <v>311</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -26824,7 +28004,7 @@
         <v>375</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -26832,7 +28012,7 @@
         <v>376</v>
       </c>
       <c r="X63" t="s">
-        <v>446</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -26840,7 +28020,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65">
@@ -26848,7 +28028,7 @@
         <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66">
@@ -26856,7 +28036,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>395</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -26864,7 +28044,7 @@
         <v>354</v>
       </c>
       <c r="X67" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68">
@@ -26872,7 +28052,7 @@
         <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69">
@@ -26880,7 +28060,7 @@
         <v>416</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -26888,7 +28068,7 @@
         <v>305</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -26896,7 +28076,7 @@
         <v>417</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -26904,7 +28084,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -26912,7 +28092,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -26920,7 +28100,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>464</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -26928,7 +28108,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76">
@@ -26936,7 +28116,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77">
@@ -26944,7 +28124,7 @@
         <v>435</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -26952,7 +28132,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -26960,7 +28140,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>508</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -26968,7 +28148,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81">
@@ -26976,7 +28156,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -26984,7 +28164,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -26992,7 +28172,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>496</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -27000,7 +28180,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85">
@@ -27008,7 +28188,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>463</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -27016,7 +28196,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87">
@@ -27024,7 +28204,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -27032,7 +28212,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -27040,7 +28220,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -27048,7 +28228,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -27056,7 +28236,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -27064,161 +28244,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="X93" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="93">
-      <c r="X93" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="94">
-      <c r="X94" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="95">
-      <c r="X95" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="96">
-      <c r="X96" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="97">
-      <c r="X97" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="98">
-      <c r="X98" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="99">
-      <c r="X99" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100">
-      <c r="X100" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="101">
-      <c r="X101" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="102">
-      <c r="X102" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="103">
-      <c r="X103" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="104">
-      <c r="X104" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="105">
-      <c r="X105" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="106">
-      <c r="X106" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="107">
-      <c r="X107" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108">
-      <c r="X108" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="109">
-      <c r="X109" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110">
-      <c r="X110" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="111">
-      <c r="X111" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="112">
-      <c r="X112" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="113">
-      <c r="X113" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="114">
-      <c r="X114" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="115">
-      <c r="X115" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="116">
-      <c r="X116" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="117">
-      <c r="X117" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="118">
-      <c r="X118" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="119">
-      <c r="X119" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="120">
-      <c r="X120" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="121">
-      <c r="X121" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="122">
-      <c r="X122" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="123">
-      <c r="X123" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20473" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21496" uniqueCount="516">
   <si>
     <t>description</t>
   </si>
@@ -1613,13 +1613,16 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="664" x14ac:knownFonts="1">
+  <fonts count="696" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5805,8 +5808,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1138">
+  <fills count="1192">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12251,8 +12456,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1179">
+  <borders count="1235">
     <border>
       <left/>
       <right/>
@@ -24134,6 +24645,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24141,7 +25216,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="691">
+  <cellXfs count="723">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26185,52 +27260,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="647" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="1113" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1113" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="649" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="1116" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1116" fontId="650" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="1119" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1119" fontId="651" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="1122" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1122" fontId="652" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="653" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="654" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1125" fontId="654" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="655" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="656" fillId="1128" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1128" fontId="656" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1131" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1131" fontId="657" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1134" fontId="658" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1134" fontId="659" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="660" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="660" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="661" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="661" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="662" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="662" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="663" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1140" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="665" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1143" fontId="666" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1146" fontId="667" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1149" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="669" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1152" fontId="670" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="671" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1155" fontId="672" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1158" fontId="673" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1161" fontId="674" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1161" fontId="675" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="676" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="677" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="678" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="679" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1167" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1170" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1173" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1176" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1182" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1185" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26615,7 +27786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -28284,126 +29455,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="X101" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="101">
-      <c r="X101" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="102">
-      <c r="X102" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="103">
-      <c r="X103" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="104">
-      <c r="X104" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105">
-      <c r="X105" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106">
-      <c r="X106" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107">
-      <c r="X107" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108">
-      <c r="X108" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109">
-      <c r="X109" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="110">
-      <c r="X110" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111">
-      <c r="X111" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="112">
-      <c r="X112" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="113">
-      <c r="X113" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="114">
-      <c r="X114" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="115">
-      <c r="X115" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="116">
-      <c r="X116" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="117">
-      <c r="X117" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="118">
-      <c r="X118" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="119">
-      <c r="X119" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="120">
-      <c r="X120" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="121">
-      <c r="X121" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122">
-      <c r="X122" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="123">
-      <c r="X123" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="124">
-      <c r="X124" t="s">
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -21,14 +21,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21496" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22012" uniqueCount="520">
   <si>
     <t>description</t>
   </si>
@@ -1616,13 +1616,25 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="696" x14ac:knownFonts="1">
+  <fonts count="712" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6010,8 +6022,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1192">
+  <fills count="1219">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12762,8 +12875,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1235">
+  <borders count="1263">
     <border>
       <left/>
       <right/>
@@ -25209,6 +25475,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -25216,7 +25764,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="723">
+  <cellXfs count="739">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27356,52 +27904,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="679" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="1167" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1167" fontId="680" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="681" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="682" fillId="1170" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1170" fontId="682" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="1173" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1173" fontId="683" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="684" fillId="1176" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1176" fontId="684" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="685" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="686" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="686" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="687" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="688" fillId="1182" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1182" fontId="688" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="689" fillId="1185" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1185" fontId="689" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1188" fontId="690" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="691" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1188" fontId="691" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="692" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="692" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="693" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1191" fontId="693" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="694" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="695" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="1194" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="1197" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="1200" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1203" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1209" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1212" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="1218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28216,6 +28812,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>516</v>
+      </c>
       <c r="G6" t="s">
         <v>394</v>
       </c>
@@ -28338,7 +28937,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -28391,7 +28990,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -28432,7 +29031,7 @@
         <v>461</v>
       </c>
       <c r="K10" t="s">
-        <v>396</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -28470,7 +29069,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>518</v>
       </c>
       <c r="M11" t="s">
         <v>485</v>
@@ -28505,7 +29104,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>396</v>
       </c>
       <c r="M12" t="s">
         <v>449</v>
@@ -28540,7 +29139,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>484</v>
@@ -28575,7 +29174,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -28607,7 +29206,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -28639,7 +29238,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -28671,7 +29270,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>514</v>
@@ -28694,7 +29293,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>386</v>
+        <v>466</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -28714,7 +29313,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>483</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -28734,7 +29333,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -28754,7 +29353,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -28774,7 +29373,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>483</v>
       </c>
       <c r="X22" t="s">
         <v>497</v>
@@ -28791,7 +29390,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -28808,7 +29407,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -28825,7 +29424,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -28841,6 +29440,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>448</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -28855,6 +29457,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -28868,6 +29473,9 @@
       </c>
       <c r="G28" t="s">
         <v>284</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
       </c>
       <c r="X28" t="s">
         <v>328</v>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22012" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22530" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1628,13 +1628,19 @@
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="712" x14ac:knownFonts="1">
+  <fonts count="728" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6123,8 +6129,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1219">
+  <fills count="1246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13028,8 +13135,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1263">
+  <borders count="1291">
     <border>
       <left/>
       <right/>
@@ -25757,6 +26017,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -25764,7 +26306,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="739">
+  <cellXfs count="755">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27952,52 +28494,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="695" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="696" fillId="1194" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1194" fontId="696" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="697" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="698" fillId="1197" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1197" fontId="698" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="699" fillId="1200" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1200" fontId="699" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="700" fillId="1203" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1203" fontId="700" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="701" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="702" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1206" fontId="702" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="703" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="704" fillId="1209" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1209" fontId="704" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="1212" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1212" fontId="705" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1215" fontId="706" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="707" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1215" fontId="707" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="708" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="708" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="709" fillId="1218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1218" fontId="709" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="710" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="710" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="711" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="1221" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="1224" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="1227" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="1230" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="1236" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="1239" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="1242" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="1242" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29533,7 +30123,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>520</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -29544,7 +30134,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -29555,7 +30145,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -29566,7 +30156,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -29577,7 +30167,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -29588,7 +30178,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>441</v>
@@ -29596,7 +30186,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>399</v>
@@ -29604,7 +30194,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -29612,7 +30202,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -29620,7 +30210,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -29628,7 +30218,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -29636,7 +30226,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -29644,7 +30234,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -29652,7 +30242,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>450</v>
@@ -29660,7 +30250,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -29668,7 +30258,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -29676,7 +30266,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -29684,7 +30274,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -29692,7 +30282,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -29700,7 +30290,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
         <v>495</v>
@@ -29708,7 +30298,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>476</v>
@@ -29716,7 +30306,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -29724,7 +30314,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>347</v>
@@ -29732,7 +30322,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>469</v>
@@ -29740,7 +30330,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -29748,7 +30338,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -29756,7 +30346,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -29764,7 +30354,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -29772,7 +30362,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -29780,7 +30370,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -29788,7 +30378,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -29796,7 +30386,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="X64" t="s">
         <v>446</v>
@@ -29804,7 +30394,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>486</v>
@@ -29812,7 +30402,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -29820,7 +30410,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>395</v>
@@ -29828,7 +30418,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s">
         <v>451</v>
@@ -29836,7 +30426,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>416</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -29844,7 +30434,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>416</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -29852,7 +30442,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>417</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -29860,7 +30450,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>417</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -29868,7 +30458,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -29876,7 +30466,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>521</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -29884,7 +30474,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>464</v>
@@ -29892,7 +30482,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>480</v>
@@ -29900,7 +30490,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -29908,7 +30498,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -29916,7 +30506,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>435</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -29924,7 +30514,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>508</v>
@@ -29932,7 +30522,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -29940,7 +30530,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -29948,7 +30538,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -29956,7 +30546,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>496</v>
@@ -29964,7 +30554,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -29972,7 +30562,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>463</v>
@@ -29980,7 +30570,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -29988,7 +30578,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -29996,7 +30586,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -30004,7 +30594,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -30012,7 +30602,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -30020,18 +30610,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22530" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23570" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1634,13 +1634,19 @@
   <si>
     <t>saveTextByLocator(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="728" x14ac:knownFonts="1">
+  <fonts count="760" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6230,8 +6236,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1246">
+  <fills count="1306">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13288,8 +13496,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1291">
+  <borders count="1347">
     <border>
       <left/>
       <right/>
@@ -26299,6 +26847,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -26306,7 +27418,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="755">
+  <cellXfs count="787">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28542,52 +29654,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="711" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="712" fillId="1221" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1221" fontId="712" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="713" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="714" fillId="1224" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1224" fontId="714" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="715" fillId="1227" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1227" fontId="715" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="716" fillId="1230" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1230" fontId="716" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="717" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="718" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1233" fontId="718" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="719" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="1236" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1236" fontId="720" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="721" fillId="1239" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1239" fontId="721" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="722" fillId="1242" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1242" fontId="722" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="723" fillId="1242" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1242" fontId="723" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="724" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="724" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="725" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="726" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="726" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="727" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1248" fontId="728" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="729" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1251" fontId="730" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1254" fontId="731" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1257" fontId="732" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="733" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1260" fontId="734" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="735" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1263" fontId="736" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1314" fillId="1266" fontId="737" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1269" fontId="738" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1269" fontId="739" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="740" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1272" fontId="741" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="742" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1275" fontId="743" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1278" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="1281" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="1284" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1287" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1290" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="1293" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="1296" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="1299" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="1299" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="1287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="1302" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="1287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="1305" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28972,7 +30180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30664,126 +31872,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="X102" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="102">
-      <c r="X102" t="s">
+    <row r="103">
+      <c r="X103" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="X104" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="103">
-      <c r="X103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="104">
-      <c r="X104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="105">
-      <c r="X105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="106">
-      <c r="X106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="107">
-      <c r="X107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="108">
-      <c r="X108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="109">
-      <c r="X109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="110">
-      <c r="X110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="111">
-      <c r="X111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="112">
-      <c r="X112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="113">
-      <c r="X113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="114">
-      <c r="X114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="115">
-      <c r="X115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="116">
-      <c r="X116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="117">
-      <c r="X117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="118">
-      <c r="X118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="119">
-      <c r="X119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="120">
-      <c r="X120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="121">
-      <c r="X121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122">
-      <c r="X122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="123">
-      <c r="X123" t="s">
+    <row r="125">
+      <c r="X125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="124">
-      <c r="X124" t="s">
+    <row r="126">
+      <c r="X126" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="125">
-      <c r="X125" t="s">
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -31,28 +31,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23570" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24098" uniqueCount="531">
   <si>
     <t>description</t>
   </si>
@@ -1640,13 +1641,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="760" x14ac:knownFonts="1">
+  <fonts count="776" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6438,8 +6460,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1306">
+  <fills count="1336">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13836,8 +13959,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1347">
+  <borders count="1375">
     <border>
       <left/>
       <right/>
@@ -27411,6 +27704,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -27418,7 +27993,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="787">
+  <cellXfs count="803">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29750,52 +30325,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1275" fontId="743" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="744" fillId="1278" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1278" fontId="744" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="745" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="746" fillId="1281" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1330" fillId="1281" fontId="746" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="747" fillId="1284" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1284" fontId="747" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="748" fillId="1287" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1287" fontId="748" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="749" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="749" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="750" fillId="1290" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1290" fontId="750" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="751" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="752" fillId="1293" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1338" fillId="1293" fontId="752" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="753" fillId="1296" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1296" fontId="753" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="754" fillId="1299" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1299" fontId="754" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="755" fillId="1299" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1299" fontId="755" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="756" fillId="1287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1287" fontId="756" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="757" fillId="1302" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1302" fontId="757" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="758" fillId="1287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1287" fontId="758" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="759" fillId="1305" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1305" fontId="759" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="1308" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="1311" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="1314" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="1317" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="1320" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="1323" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1326" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1329" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="1329" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="1317" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="1332" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="1317" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1335" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30180,7 +30803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30232,51 +30855,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>524</v>
+      </c>
+      <c r="O1" t="s">
         <v>489</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>406</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>427</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>420</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>402</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>429</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -30321,51 +30947,54 @@
         <v>436</v>
       </c>
       <c r="N2" t="s">
+        <v>525</v>
+      </c>
+      <c r="O2" t="s">
         <v>492</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>419</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>437</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>254</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>407</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>428</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>426</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>387</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>403</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>439</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>503</v>
       </c>
     </row>
@@ -30410,45 +31039,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>526</v>
+      </c>
+      <c r="O3" t="s">
         <v>493</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>438</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>241</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>408</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>422</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>388</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>404</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>370</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -30490,45 +31122,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>527</v>
+      </c>
+      <c r="O4" t="s">
         <v>494</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>242</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>409</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>423</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>405</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>430</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -30563,40 +31198,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>221</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>410</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>424</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>431</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -30628,37 +31266,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>244</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>397</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>411</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>453</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>432</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -30684,37 +31325,40 @@
       <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>421</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>412</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>454</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>433</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -30740,34 +31384,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>413</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>434</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -30793,25 +31437,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>414</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -30834,22 +31478,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>440</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>248</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>415</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>487</v>
       </c>
     </row>
@@ -30872,19 +31516,19 @@
       <c r="M11" t="s">
         <v>485</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>504</v>
       </c>
     </row>
@@ -30907,19 +31551,19 @@
       <c r="M12" t="s">
         <v>449</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>505</v>
       </c>
     </row>
@@ -30942,25 +31586,25 @@
       <c r="M13" t="s">
         <v>484</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -30977,25 +31621,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>489</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -31009,25 +31653,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>512</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>391</v>
@@ -31041,25 +31685,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>513</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>392</v>
@@ -31070,19 +31714,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>514</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>471</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>418</v>
@@ -31093,16 +31737,16 @@
       <c r="K18" t="s">
         <v>466</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>406</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -31113,16 +31757,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -31133,16 +31777,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
@@ -31153,16 +31797,16 @@
       <c r="K21" t="s">
         <v>386</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -31173,13 +31817,13 @@
       <c r="K22" t="s">
         <v>483</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="E23" t="s">
         <v>322</v>
@@ -31190,13 +31834,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>402</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -31207,13 +31851,13 @@
       <c r="K24" t="s">
         <v>398</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>457</v>
@@ -31224,13 +31868,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -31241,13 +31885,13 @@
       <c r="K26" t="s">
         <v>448</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -31258,13 +31902,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>481</v>
@@ -31275,13 +31919,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>429</v>
       </c>
       <c r="E29" t="s">
         <v>482</v>
@@ -31289,18 +31933,21 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>425</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -31311,7 +31958,7 @@
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -31322,7 +31969,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -31333,7 +31980,7 @@
       <c r="G33" t="s">
         <v>520</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -31344,7 +31991,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -31355,7 +32002,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -31366,7 +32013,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -31377,7 +32024,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -31388,7 +32035,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>441</v>
       </c>
     </row>
@@ -31396,7 +32043,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>399</v>
       </c>
     </row>
@@ -31404,7 +32051,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -31412,7 +32059,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -31420,7 +32067,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -31428,7 +32075,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -31436,7 +32083,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -31444,7 +32091,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -31452,7 +32099,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>450</v>
       </c>
     </row>
@@ -31460,7 +32107,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -31468,7 +32115,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -31476,7 +32123,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -31484,7 +32131,7 @@
       <c r="G50" t="s">
         <v>374</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -31492,7 +32139,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -31500,7 +32147,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>495</v>
       </c>
     </row>
@@ -31508,7 +32155,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>476</v>
       </c>
     </row>
@@ -31516,7 +32163,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -31524,7 +32171,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>347</v>
       </c>
     </row>
@@ -31532,7 +32179,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>469</v>
       </c>
     </row>
@@ -31540,7 +32187,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -31548,7 +32195,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -31556,7 +32203,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -31564,7 +32211,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -31572,7 +32219,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -31580,7 +32227,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -31588,7 +32235,7 @@
       <c r="G63" t="s">
         <v>375</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -31596,7 +32243,7 @@
       <c r="G64" t="s">
         <v>376</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>446</v>
       </c>
     </row>
@@ -31604,7 +32251,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>486</v>
       </c>
     </row>
@@ -31612,7 +32259,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -31620,7 +32267,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>395</v>
       </c>
     </row>
@@ -31628,7 +32275,7 @@
       <c r="G68" t="s">
         <v>354</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>451</v>
       </c>
     </row>
@@ -31636,7 +32283,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -31644,7 +32291,7 @@
       <c r="G70" t="s">
         <v>416</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -31652,7 +32299,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -31660,7 +32307,7 @@
       <c r="G72" t="s">
         <v>417</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -31668,7 +32315,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -31676,7 +32323,7 @@
       <c r="G74" t="s">
         <v>521</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -31684,7 +32331,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>464</v>
       </c>
     </row>
@@ -31692,7 +32339,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>480</v>
       </c>
     </row>
@@ -31700,7 +32347,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -31708,7 +32355,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -31716,7 +32363,7 @@
       <c r="G79" t="s">
         <v>435</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -31724,7 +32371,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>508</v>
       </c>
     </row>
@@ -31732,7 +32379,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -31740,7 +32387,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -31748,7 +32395,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -31756,7 +32403,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>496</v>
       </c>
     </row>
@@ -31764,7 +32411,7 @@
       <c r="G85" t="s">
         <v>272</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -31772,7 +32419,7 @@
       <c r="G86" t="s">
         <v>289</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>463</v>
       </c>
     </row>
@@ -31780,7 +32427,7 @@
       <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -31788,7 +32435,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -31796,7 +32443,7 @@
       <c r="G89" t="s">
         <v>306</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -31804,7 +32451,7 @@
       <c r="G90" t="s">
         <v>312</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -31812,7 +32459,7 @@
       <c r="G91" t="s">
         <v>296</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -31820,7 +32467,7 @@
       <c r="G92" t="s">
         <v>341</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>443</v>
       </c>
     </row>
@@ -31828,7 +32475,7 @@
       <c r="G93" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>445</v>
       </c>
     </row>
@@ -31836,172 +32483,172 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -53,7 +53,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24098" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26224" uniqueCount="535">
   <si>
     <t>description</t>
   </si>
@@ -1662,13 +1662,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="776" x14ac:knownFonts="1">
+  <fonts count="840" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6561,8 +6573,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1336">
+  <fills count="1456">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14129,8 +14545,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1375">
+  <borders count="1487">
     <border>
       <left/>
       <right/>
@@ -27986,6 +29082,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -27993,7 +30217,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="803">
+  <cellXfs count="867">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30373,52 +32597,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1305" fontId="759" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="760" fillId="1308" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1354" fillId="1308" fontId="760" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="761" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="761" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="762" fillId="1311" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1311" fontId="762" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="763" fillId="1314" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1314" fontId="763" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="764" fillId="1317" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1317" fontId="764" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="765" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="765" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="766" fillId="1320" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1320" fontId="766" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="767" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="767" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="768" fillId="1323" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1366" fillId="1323" fontId="768" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="769" fillId="1326" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1370" fillId="1326" fontId="769" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="770" fillId="1329" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1329" fontId="770" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="771" fillId="1329" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1329" fontId="771" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="772" fillId="1317" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1317" fontId="772" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="773" fillId="1332" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1332" fontId="773" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="774" fillId="1317" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1317" fontId="774" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="775" fillId="1335" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1335" fontId="775" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1382" fillId="1338" fontId="776" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="777" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1341" fontId="778" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1344" fontId="779" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1347" fontId="780" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="781" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1350" fontId="782" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="783" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1394" fillId="1353" fontId="784" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1398" fillId="1356" fontId="785" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1359" fontId="786" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1359" fontId="787" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1347" fontId="788" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1362" fontId="789" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1347" fontId="790" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="791" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1410" fillId="1368" fontId="792" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="793" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1414" fillId="1371" fontId="794" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1374" fontId="795" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1377" fontId="796" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="797" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1380" fontId="798" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="799" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1383" fontId="800" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1426" fillId="1386" fontId="801" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1389" fontId="802" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1389" fontId="803" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1377" fontId="804" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1392" fontId="805" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1377" fontId="806" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1395" fontId="807" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1398" fontId="808" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="809" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1442" fillId="1401" fontId="810" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1446" fillId="1404" fontId="811" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1446" fillId="1407" fontId="812" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="813" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="814" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="815" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1450" fillId="1413" fontId="816" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1416" fontId="817" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1419" fontId="818" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1419" fontId="819" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="820" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="821" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="822" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1425" fontId="823" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="1428" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="1431" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="1434" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="1437" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="1440" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="1443" borderId="1478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="1446" borderId="1482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="1449" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="1449" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="1452" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="1455" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31199,7 +33615,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -31267,7 +33683,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -31326,7 +33742,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -31384,6 +33800,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>528</v>
+      </c>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
@@ -31437,6 +33856,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>529</v>
+      </c>
       <c r="Q9" t="s">
         <v>93</v>
       </c>
@@ -31477,6 +33899,9 @@
       </c>
       <c r="M10" t="s">
         <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>530</v>
       </c>
       <c r="Q10" t="s">
         <v>440</v>
@@ -31866,7 +34291,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>534</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>
@@ -31883,7 +34308,7 @@
         <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>448</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
         <v>114</v>
@@ -31900,7 +34325,7 @@
         <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="Y27" t="s">
         <v>115</v>
@@ -31917,7 +34342,7 @@
         <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>328</v>
@@ -31932,6 +34357,9 @@
       </c>
       <c r="G29" t="s">
         <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>116</v>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -52,8 +52,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26224" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26759" uniqueCount="539">
   <si>
     <t>description</t>
   </si>
@@ -1674,13 +1674,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="840" x14ac:knownFonts="1">
+  <fonts count="856" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6977,8 +6989,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1456">
+  <fills count="1486">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15225,8 +15338,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1487">
+  <borders count="1515">
     <border>
       <left/>
       <right/>
@@ -30210,6 +30493,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -30217,7 +30782,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="867">
+  <cellXfs count="883">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32789,52 +33354,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1425" fontId="823" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="824" fillId="1428" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1466" fillId="1428" fontId="824" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="825" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="825" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="826" fillId="1431" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1431" fontId="826" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="827" fillId="1434" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1474" fillId="1434" fontId="827" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="828" fillId="1437" borderId="1474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1474" fillId="1437" fontId="828" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="829" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="829" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="830" fillId="1440" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1440" fontId="830" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="831" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="831" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="832" fillId="1443" borderId="1478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1478" fillId="1443" fontId="832" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="833" fillId="1446" borderId="1482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1482" fillId="1446" fontId="833" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="834" fillId="1449" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1449" fontId="834" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="835" fillId="1449" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1449" fontId="835" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="836" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="836" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="837" fillId="1452" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1452" fontId="837" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="838" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="838" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="839" fillId="1455" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1455" fontId="839" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="1458" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="1461" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="1464" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="1467" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="1470" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="1473" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="1476" borderId="1510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="1479" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="1479" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="1467" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="1467" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33425,7 +34038,7 @@
         <v>474</v>
       </c>
       <c r="D3" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="E3" t="s">
         <v>467</v>
@@ -33508,7 +34121,7 @@
         <v>380</v>
       </c>
       <c r="D4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -33591,7 +34204,7 @@
         <v>381</v>
       </c>
       <c r="D5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E5" t="s">
         <v>468</v>
@@ -33615,7 +34228,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -33661,6 +34274,9 @@
       <c r="B6" t="s">
         <v>382</v>
       </c>
+      <c r="D6" t="s">
+        <v>502</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -33683,7 +34299,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -33742,7 +34358,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -33801,7 +34417,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="Q8" t="s">
         <v>92</v>
@@ -33857,7 +34473,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="Q9" t="s">
         <v>93</v>
@@ -33901,7 +34517,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q10" t="s">
         <v>440</v>
@@ -33941,6 +34557,9 @@
       <c r="M11" t="s">
         <v>485</v>
       </c>
+      <c r="N11" t="s">
+        <v>529</v>
+      </c>
       <c r="Q11" t="s">
         <v>94</v>
       </c>
@@ -33975,6 +34594,9 @@
       </c>
       <c r="M12" t="s">
         <v>449</v>
+      </c>
+      <c r="N12" t="s">
+        <v>530</v>
       </c>
       <c r="Q12" t="s">
         <v>41</v>
@@ -34291,7 +34913,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26759" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27296" uniqueCount="541">
   <si>
     <t>description</t>
   </si>
@@ -1686,13 +1686,19 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="856" x14ac:knownFonts="1">
+  <fonts count="872" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7090,8 +7096,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1486">
+  <fills count="1516">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15508,8 +15615,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1515">
+  <borders count="1543">
     <border>
       <left/>
       <right/>
@@ -30775,6 +31052,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -30782,7 +31341,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="883">
+  <cellXfs count="899">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33402,52 +33961,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1455" fontId="839" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="840" fillId="1458" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1494" fillId="1458" fontId="840" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="841" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="842" fillId="1461" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1498" fillId="1461" fontId="842" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="843" fillId="1464" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1464" fontId="843" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="844" fillId="1467" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1467" fontId="844" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="845" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="845" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="846" fillId="1470" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1470" fontId="846" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="847" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="847" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="848" fillId="1473" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1506" fillId="1473" fontId="848" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="849" fillId="1476" borderId="1510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1510" fillId="1476" fontId="849" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="850" fillId="1479" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1479" fontId="850" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="851" fillId="1479" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1479" fontId="851" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="852" fillId="1467" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1467" fontId="852" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="853" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1482" fontId="853" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="854" fillId="1467" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1467" fontId="854" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="855" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1485" fontId="855" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="1488" borderId="1522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="1491" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="1494" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="1497" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="1503" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="1506" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="1509" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="1509" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="1515" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33832,7 +34439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -34218,6 +34825,9 @@
       <c r="H5" t="s">
         <v>465</v>
       </c>
+      <c r="I5" t="s">
+        <v>539</v>
+      </c>
       <c r="J5" t="s">
         <v>352</v>
       </c>
@@ -35094,7 +35704,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>399</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40">
@@ -35102,7 +35712,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41">
@@ -35110,7 +35720,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -35118,7 +35728,7 @@
         <v>290</v>
       </c>
       <c r="Y42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -35126,7 +35736,7 @@
         <v>301</v>
       </c>
       <c r="Y43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -35134,7 +35744,7 @@
         <v>302</v>
       </c>
       <c r="Y44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -35142,7 +35752,7 @@
         <v>344</v>
       </c>
       <c r="Y45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -35150,7 +35760,7 @@
         <v>343</v>
       </c>
       <c r="Y46" t="s">
-        <v>450</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -35158,7 +35768,7 @@
         <v>212</v>
       </c>
       <c r="Y47" t="s">
-        <v>214</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48">
@@ -35166,7 +35776,7 @@
         <v>321</v>
       </c>
       <c r="Y48" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
@@ -35174,7 +35784,7 @@
         <v>340</v>
       </c>
       <c r="Y49" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -35182,7 +35792,7 @@
         <v>374</v>
       </c>
       <c r="Y50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -35190,7 +35800,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -35198,7 +35808,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>495</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -35206,7 +35816,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54">
@@ -35214,7 +35824,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>132</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55">
@@ -35222,7 +35832,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -35230,7 +35840,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>469</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57">
@@ -35238,7 +35848,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>133</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58">
@@ -35246,7 +35856,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
@@ -35254,7 +35864,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
@@ -35262,7 +35872,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -35270,7 +35880,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
@@ -35278,7 +35888,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63">
@@ -35286,7 +35896,7 @@
         <v>375</v>
       </c>
       <c r="Y63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -35294,7 +35904,7 @@
         <v>376</v>
       </c>
       <c r="Y64" t="s">
-        <v>446</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -35302,7 +35912,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66">
@@ -35310,7 +35920,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>215</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67">
@@ -35318,7 +35928,7 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>395</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
@@ -35326,7 +35936,7 @@
         <v>354</v>
       </c>
       <c r="Y68" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69">
@@ -35334,7 +35944,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>140</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70">
@@ -35342,7 +35952,7 @@
         <v>416</v>
       </c>
       <c r="Y70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -35350,7 +35960,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
@@ -35358,7 +35968,7 @@
         <v>417</v>
       </c>
       <c r="Y72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -35366,7 +35976,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -35374,7 +35984,7 @@
         <v>521</v>
       </c>
       <c r="Y74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75">
@@ -35382,7 +35992,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>464</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -35390,7 +36000,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77">
@@ -35398,7 +36008,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>144</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78">
@@ -35406,7 +36016,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
@@ -35414,7 +36024,7 @@
         <v>435</v>
       </c>
       <c r="Y79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
@@ -35422,7 +36032,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>508</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81">
@@ -35430,7 +36040,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>147</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82">
@@ -35438,7 +36048,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -35446,7 +36056,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -35454,7 +36064,7 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>496</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -35462,7 +36072,7 @@
         <v>272</v>
       </c>
       <c r="Y85" t="s">
-        <v>201</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86">
@@ -35470,7 +36080,7 @@
         <v>289</v>
       </c>
       <c r="Y86" t="s">
-        <v>463</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -35478,7 +36088,7 @@
         <v>273</v>
       </c>
       <c r="Y87" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88">
@@ -35486,7 +36096,7 @@
         <v>274</v>
       </c>
       <c r="Y88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -35494,7 +36104,7 @@
         <v>306</v>
       </c>
       <c r="Y89" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -35502,7 +36112,7 @@
         <v>312</v>
       </c>
       <c r="Y90" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -35510,7 +36120,7 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -35518,7 +36128,7 @@
         <v>341</v>
       </c>
       <c r="Y92" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93">
@@ -35526,7 +36136,7 @@
         <v>278</v>
       </c>
       <c r="Y93" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94">
@@ -35534,171 +36144,176 @@
         <v>279</v>
       </c>
       <c r="Y94" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="Y95" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95">
-      <c r="Y95" t="s">
+    <row r="96">
+      <c r="Y96" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96">
-      <c r="Y96" t="s">
+    <row r="97">
+      <c r="Y97" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="97">
-      <c r="Y97" t="s">
+    <row r="98">
+      <c r="Y98" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="99">
+      <c r="Y99" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="100">
+      <c r="Y100" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="101">
+      <c r="Y101" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="102">
+      <c r="Y102" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="103">
+      <c r="Y103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="104">
+      <c r="Y104" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="105">
+      <c r="Y105" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="106">
+      <c r="Y106" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="107">
+      <c r="Y107" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="108">
+      <c r="Y108" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Y109" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Y110" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Y111" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Y112" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Y113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Y114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Y115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Y116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Y117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Y118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Y119" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Y120" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Y121" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Y122" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Y123" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Y124" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Y125" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Y126" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Y127" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Y128" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -24,13 +24,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27296" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27843" uniqueCount="552">
   <si>
     <t>description</t>
   </si>
@@ -1692,13 +1692,46 @@
   <si>
     <t>assertTextNotContains(locator,text)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="872" x14ac:knownFonts="1">
+  <fonts count="888" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7197,8 +7230,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1516">
+  <fills count="1543">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15785,8 +15919,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1543">
+  <borders count="1575">
     <border>
       <left/>
       <right/>
@@ -31334,6 +31621,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -31341,7 +31954,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="899">
+  <cellXfs count="915">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34009,52 +34622,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1485" fontId="855" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="856" fillId="1488" borderId="1522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1522" fillId="1488" fontId="856" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="857" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="857" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="858" fillId="1491" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1526" fillId="1491" fontId="858" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="859" fillId="1494" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1494" fontId="859" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="860" fillId="1497" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1497" fontId="860" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="861" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="861" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="862" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1500" fontId="862" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="863" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="863" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="864" fillId="1503" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1503" fontId="864" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="865" fillId="1506" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1538" fillId="1506" fontId="865" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="866" fillId="1509" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1542" fillId="1509" fontId="866" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="867" fillId="1509" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1542" fillId="1509" fontId="867" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="868" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1497" fontId="868" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="869" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1512" fontId="869" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="870" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1497" fontId="870" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="871" fillId="1515" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1515" fontId="871" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="1518" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="1521" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="1524" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="1527" borderId="1562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="1530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="1533" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="1524" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="1536" borderId="1574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="1536" borderId="1574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="1539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34439,7 +35100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -34961,6 +35622,9 @@
       <c r="H7" t="s">
         <v>456</v>
       </c>
+      <c r="J7" t="s">
+        <v>543</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -35001,7 +35665,7 @@
         <v>433</v>
       </c>
       <c r="AD7" t="s">
-        <v>233</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8">
@@ -35057,7 +35721,7 @@
         <v>434</v>
       </c>
       <c r="AD8" t="s">
-        <v>234</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9">
@@ -35104,7 +35768,7 @@
         <v>190</v>
       </c>
       <c r="AD9" t="s">
-        <v>235</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10">
@@ -35145,7 +35809,7 @@
         <v>191</v>
       </c>
       <c r="AD10" t="s">
-        <v>487</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -35183,7 +35847,7 @@
         <v>260</v>
       </c>
       <c r="AD11" t="s">
-        <v>504</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -35203,7 +35867,7 @@
         <v>396</v>
       </c>
       <c r="M12" t="s">
-        <v>449</v>
+        <v>544</v>
       </c>
       <c r="N12" t="s">
         <v>530</v>
@@ -35221,7 +35885,7 @@
         <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>505</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -35241,7 +35905,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="Q13" t="s">
         <v>95</v>
@@ -35256,7 +35920,7 @@
         <v>193</v>
       </c>
       <c r="AD13" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14">
@@ -35276,7 +35940,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -35291,7 +35955,7 @@
         <v>194</v>
       </c>
       <c r="AD14" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15">
@@ -35308,7 +35972,7 @@
         <v>519</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>512</v>
@@ -35323,7 +35987,7 @@
         <v>195</v>
       </c>
       <c r="AD15" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16">
@@ -35340,7 +36004,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>513</v>
@@ -35355,7 +36019,7 @@
         <v>196</v>
       </c>
       <c r="AD16" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17">
@@ -35371,6 +36035,9 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
       <c r="Y17" t="s">
         <v>514</v>
       </c>
@@ -35378,7 +36045,7 @@
         <v>471</v>
       </c>
       <c r="AD17" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18">
@@ -35398,7 +36065,7 @@
         <v>106</v>
       </c>
       <c r="AD18" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19">
@@ -35418,7 +36085,7 @@
         <v>107</v>
       </c>
       <c r="AD19" t="s">
-        <v>236</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20">
@@ -35438,7 +36105,7 @@
         <v>108</v>
       </c>
       <c r="AD20" t="s">
-        <v>237</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21">
@@ -35458,7 +36125,7 @@
         <v>109</v>
       </c>
       <c r="AD21" t="s">
-        <v>238</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22">
@@ -35477,6 +36144,9 @@
       <c r="Y22" t="s">
         <v>497</v>
       </c>
+      <c r="AD22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -35494,6 +36164,9 @@
       <c r="Y23" t="s">
         <v>111</v>
       </c>
+      <c r="AD23" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -35511,6 +36184,9 @@
       <c r="Y24" t="s">
         <v>112</v>
       </c>
+      <c r="AD24" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -35528,6 +36204,9 @@
       <c r="Y25" t="s">
         <v>113</v>
       </c>
+      <c r="AD25" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -35545,6 +36224,9 @@
       <c r="Y26" t="s">
         <v>114</v>
       </c>
+      <c r="AD26" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -35562,6 +36244,9 @@
       <c r="Y27" t="s">
         <v>115</v>
       </c>
+      <c r="AD27" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -35792,7 +36477,7 @@
         <v>374</v>
       </c>
       <c r="Y50" t="s">
-        <v>129</v>
+        <v>545</v>
       </c>
     </row>
     <row r="51">
@@ -35800,7 +36485,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -35808,7 +36493,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -35816,7 +36501,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>495</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -35824,7 +36509,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55">
@@ -35832,7 +36517,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>132</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56">
@@ -35840,7 +36525,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -35848,7 +36533,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>469</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
@@ -35856,7 +36541,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>133</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59">
@@ -35864,7 +36549,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -35872,7 +36557,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -35880,7 +36565,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -35888,7 +36573,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -35896,7 +36581,7 @@
         <v>375</v>
       </c>
       <c r="Y63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -35904,7 +36589,7 @@
         <v>376</v>
       </c>
       <c r="Y64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -35912,7 +36597,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>446</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -35920,7 +36605,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67">
@@ -35928,15 +36613,15 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>215</v>
+        <v>486</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>354</v>
+        <v>541</v>
       </c>
       <c r="Y68" t="s">
-        <v>395</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
@@ -35944,7 +36629,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70">
@@ -35952,7 +36637,7 @@
         <v>416</v>
       </c>
       <c r="Y70" t="s">
-        <v>140</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71">
@@ -35960,7 +36645,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -35968,7 +36653,7 @@
         <v>417</v>
       </c>
       <c r="Y72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -35976,7 +36661,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
@@ -35984,7 +36669,7 @@
         <v>521</v>
       </c>
       <c r="Y74" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -35992,7 +36677,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
@@ -36000,7 +36685,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>464</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -36008,7 +36693,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78">
@@ -36016,7 +36701,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>144</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79">
@@ -36024,7 +36709,7 @@
         <v>435</v>
       </c>
       <c r="Y79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -36032,7 +36717,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -36040,7 +36725,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>508</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -36048,7 +36733,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>147</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83">
@@ -36056,7 +36741,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -36064,256 +36749,264 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="G85" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y85" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="85">
-      <c r="G85" t="s">
+    <row r="86">
+      <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Y86" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="86">
-      <c r="G86" t="s">
+    <row r="87">
+      <c r="G87" t="s">
         <v>289</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Y87" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="87">
-      <c r="G87" t="s">
+    <row r="88">
+      <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Y88" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="88">
-      <c r="G88" t="s">
+    <row r="89">
+      <c r="G89" t="s">
         <v>274</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Y89" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="89">
-      <c r="G89" t="s">
+    <row r="90">
+      <c r="G90" t="s">
         <v>306</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Y90" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="90">
-      <c r="G90" t="s">
+    <row r="91">
+      <c r="G91" t="s">
         <v>312</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Y91" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="91">
-      <c r="G91" t="s">
+    <row r="92">
+      <c r="G92" t="s">
         <v>296</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Y92" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92">
-      <c r="G92" t="s">
+    <row r="93">
+      <c r="G93" t="s">
         <v>341</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Y93" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="93">
-      <c r="G93" t="s">
+    <row r="94">
+      <c r="G94" t="s">
         <v>278</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Y94" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="94">
-      <c r="G94" t="s">
+    <row r="95">
+      <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="95">
-      <c r="Y95" t="s">
+    <row r="96">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="96">
-      <c r="Y96" t="s">
+    <row r="97">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97">
-      <c r="Y97" t="s">
+    <row r="98">
+      <c r="Y98" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="99">
+      <c r="Y99" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="100">
+      <c r="Y100" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="101">
+      <c r="Y101" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="102">
+      <c r="Y102" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="103">
+      <c r="Y103" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="104">
+      <c r="Y104" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="105">
+      <c r="Y105" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="106">
+      <c r="Y106" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="107">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="108">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Y118" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Y119" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Y120" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Y123" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Y124" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Y128" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -43,17 +43,18 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27843" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28394" uniqueCount="555">
   <si>
     <t>description</t>
   </si>
@@ -1725,13 +1726,22 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="888" x14ac:knownFonts="1">
+  <fonts count="904" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7331,8 +7341,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1543">
+  <fills count="1570">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16072,8 +16183,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1575">
+  <borders count="1607">
     <border>
       <left/>
       <right/>
@@ -31947,6 +32211,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -31954,7 +32544,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="915">
+  <cellXfs count="931">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34670,52 +35260,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1515" fontId="871" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="872" fillId="1518" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1550" fillId="1518" fontId="872" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="873" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="874" fillId="1521" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1554" fillId="1521" fontId="874" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="875" fillId="1524" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1558" fillId="1524" fontId="875" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="876" fillId="1527" borderId="1562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1562" fillId="1527" fontId="876" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="877" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="877" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="878" fillId="1530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1530" fontId="878" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="879" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="879" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="880" fillId="1533" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1533" fontId="880" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="881" fillId="1524" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1570" fillId="1524" fontId="881" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="882" fillId="1536" borderId="1574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1574" fillId="1536" fontId="882" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="883" fillId="1536" borderId="1574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1574" fillId="1536" fontId="883" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="884" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1527" fontId="884" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="885" fillId="1539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1539" fontId="885" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="886" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1527" fontId="886" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="887" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1542" fontId="887" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="1545" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="1548" borderId="1586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="1551" borderId="1590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="1554" borderId="1594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="1560" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="1551" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="1563" borderId="1606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="1563" borderId="1606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="1569" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35100,7 +35738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -35185,21 +35823,24 @@
         <v>402</v>
       </c>
       <c r="Y1" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>429</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -35277,21 +35918,24 @@
         <v>403</v>
       </c>
       <c r="Y2" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>439</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>503</v>
       </c>
     </row>
@@ -35362,22 +36006,22 @@
       <c r="X3" t="s">
         <v>404</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>370</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -35445,22 +36089,22 @@
       <c r="X4" t="s">
         <v>405</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>430</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -35519,22 +36163,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>356</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>431</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -35587,22 +36231,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>453</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>432</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -35649,22 +36293,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>454</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>433</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>546</v>
       </c>
     </row>
@@ -35705,22 +36349,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>434</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>547</v>
       </c>
     </row>
@@ -35761,13 +36405,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>548</v>
       </c>
     </row>
@@ -35802,13 +36446,13 @@
       <c r="T10" t="s">
         <v>415</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -35840,13 +36484,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -35878,13 +36522,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -35913,13 +36557,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>487</v>
       </c>
     </row>
@@ -35948,13 +36592,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>504</v>
       </c>
     </row>
@@ -35980,13 +36624,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>505</v>
       </c>
     </row>
@@ -36012,13 +36656,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -36038,13 +36682,13 @@
       <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>514</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>471</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -36061,10 +36705,10 @@
       <c r="K18" t="s">
         <v>466</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>488</v>
       </c>
     </row>
@@ -36081,10 +36725,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>506</v>
       </c>
     </row>
@@ -36101,10 +36745,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>507</v>
       </c>
     </row>
@@ -36121,10 +36765,10 @@
       <c r="K21" t="s">
         <v>386</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>511</v>
       </c>
     </row>
@@ -36133,7 +36777,7 @@
         <v>420</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>553</v>
       </c>
       <c r="G22" t="s">
         <v>300</v>
@@ -36141,10 +36785,10 @@
       <c r="K22" t="s">
         <v>483</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>497</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -36153,7 +36797,7 @@
         <v>358</v>
       </c>
       <c r="E23" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>291</v>
@@ -36161,10 +36805,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>549</v>
       </c>
     </row>
@@ -36173,7 +36817,7 @@
         <v>402</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="G24" t="s">
         <v>280</v>
@@ -36181,19 +36825,19 @@
       <c r="K24" t="s">
         <v>398</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>112</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>552</v>
       </c>
       <c r="E25" t="s">
-        <v>457</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -36201,19 +36845,19 @@
       <c r="K25" t="s">
         <v>536</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>113</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>457</v>
       </c>
       <c r="G26" t="s">
         <v>283</v>
@@ -36221,19 +36865,19 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>114</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>267</v>
@@ -36241,19 +36885,19 @@
       <c r="K27" t="s">
         <v>448</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>115</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>481</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
         <v>284</v>
@@ -36261,16 +36905,16 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G29" t="s">
         <v>285</v>
@@ -36278,117 +36922,123 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>425</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>520</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>540</v>
       </c>
     </row>
@@ -36396,7 +37046,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>399</v>
       </c>
     </row>
@@ -36404,7 +37054,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -36412,7 +37062,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -36420,7 +37070,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -36428,7 +37078,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -36436,7 +37086,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -36444,7 +37094,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -36452,7 +37102,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>450</v>
       </c>
     </row>
@@ -36460,7 +37110,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -36468,7 +37118,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -36476,7 +37126,7 @@
       <c r="G50" t="s">
         <v>374</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>545</v>
       </c>
     </row>
@@ -36484,7 +37134,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -36492,7 +37142,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -36500,7 +37150,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -36508,7 +37158,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>495</v>
       </c>
     </row>
@@ -36516,7 +37166,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>476</v>
       </c>
     </row>
@@ -36524,7 +37174,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -36532,7 +37182,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -36540,7 +37190,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>469</v>
       </c>
     </row>
@@ -36548,7 +37198,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -36556,7 +37206,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -36564,7 +37214,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -36572,7 +37222,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -36580,7 +37230,7 @@
       <c r="G63" t="s">
         <v>375</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -36588,7 +37238,7 @@
       <c r="G64" t="s">
         <v>376</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -36596,7 +37246,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -36604,7 +37254,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>446</v>
       </c>
     </row>
@@ -36612,7 +37262,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>486</v>
       </c>
     </row>
@@ -36620,7 +37270,7 @@
       <c r="G68" t="s">
         <v>541</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -36628,7 +37278,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>395</v>
       </c>
     </row>
@@ -36636,7 +37286,7 @@
       <c r="G70" t="s">
         <v>416</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>451</v>
       </c>
     </row>
@@ -36644,7 +37294,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -36652,7 +37302,7 @@
       <c r="G72" t="s">
         <v>417</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -36660,7 +37310,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -36668,7 +37318,7 @@
       <c r="G74" t="s">
         <v>521</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -36676,7 +37326,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -36684,7 +37334,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -36692,7 +37342,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>464</v>
       </c>
     </row>
@@ -36700,7 +37350,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>480</v>
       </c>
     </row>
@@ -36708,7 +37358,7 @@
       <c r="G79" t="s">
         <v>435</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -36716,7 +37366,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -36724,7 +37374,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -36732,7 +37382,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>508</v>
       </c>
     </row>
@@ -36740,7 +37390,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -36748,7 +37398,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -36756,7 +37406,7 @@
       <c r="G85" t="s">
         <v>542</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -36764,7 +37414,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>496</v>
       </c>
     </row>
@@ -36772,7 +37422,7 @@
       <c r="G87" t="s">
         <v>289</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -36780,7 +37430,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>463</v>
       </c>
     </row>
@@ -36788,7 +37438,7 @@
       <c r="G89" t="s">
         <v>274</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -36796,7 +37446,7 @@
       <c r="G90" t="s">
         <v>306</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -36804,7 +37454,7 @@
       <c r="G91" t="s">
         <v>312</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36812,7 +37462,7 @@
       <c r="G92" t="s">
         <v>296</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -36820,7 +37470,7 @@
       <c r="G93" t="s">
         <v>341</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -36828,7 +37478,7 @@
       <c r="G94" t="s">
         <v>278</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>443</v>
       </c>
     </row>
@@ -36836,177 +37486,177 @@
       <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28394" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29500" uniqueCount="557">
   <si>
     <t>description</t>
   </si>
@@ -1735,13 +1735,19 @@
   <si>
     <t>spellCheck(var,profile,text)</t>
   </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="904" x14ac:knownFonts="1">
+  <fonts count="936" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7442,8 +7448,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1570">
+  <fills count="1624">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16336,8 +16544,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1607">
+  <borders count="1671">
     <border>
       <left/>
       <right/>
@@ -32537,6 +33051,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -32544,7 +33710,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="931">
+  <cellXfs count="963">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -35308,52 +36474,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1542" fontId="887" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="888" fillId="1545" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1582" fillId="1545" fontId="888" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="889" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="890" fillId="1548" borderId="1586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1586" fillId="1548" fontId="890" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="891" fillId="1551" borderId="1590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1590" fillId="1551" fontId="891" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="892" fillId="1554" borderId="1594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1594" fillId="1554" fontId="892" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="893" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="893" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="894" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1557" fontId="894" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="895" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="895" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="896" fillId="1560" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1598" fillId="1560" fontId="896" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="897" fillId="1551" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1602" fillId="1551" fontId="897" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="898" fillId="1563" borderId="1606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1606" fillId="1563" fontId="898" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="899" fillId="1563" borderId="1606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1606" fillId="1563" fontId="899" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="900" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1554" fontId="900" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="901" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1566" fontId="901" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="902" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1554" fontId="902" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="903" fillId="1569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1569" fontId="903" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1572" fontId="904" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="905" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1618" fillId="1575" fontId="906" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1622" fillId="1578" fontId="907" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1626" fillId="1581" fontId="908" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="909" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1584" fontId="910" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="911" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1630" fillId="1587" fontId="912" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1634" fillId="1578" fontId="913" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1638" fillId="1590" fontId="914" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1638" fillId="1590" fontId="915" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1581" fontId="916" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1593" fontId="917" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1581" fontId="918" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1596" fontId="919" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="1599" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="1602" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="1605" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="1608" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="1614" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="1605" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="1617" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="1617" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="1608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="1620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="1608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="1623" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37060,7 +38322,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>290</v>
+        <v>555</v>
       </c>
       <c r="Z42" t="s">
         <v>124</v>
@@ -37068,7 +38330,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Z43" t="s">
         <v>125</v>
@@ -37076,7 +38338,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z44" t="s">
         <v>126</v>
@@ -37084,7 +38346,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Z45" t="s">
         <v>127</v>
@@ -37092,7 +38354,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z46" t="s">
         <v>128</v>
@@ -37100,7 +38362,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s">
         <v>450</v>
@@ -37108,7 +38370,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Z48" t="s">
         <v>214</v>
@@ -37116,7 +38378,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Z49" t="s">
         <v>78</v>
@@ -37124,7 +38386,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s">
         <v>545</v>
@@ -37132,7 +38394,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -37140,7 +38402,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="Z52" t="s">
         <v>130</v>
@@ -37148,7 +38410,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Z53" t="s">
         <v>131</v>
@@ -37156,7 +38418,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Z54" t="s">
         <v>495</v>
@@ -37164,7 +38426,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Z55" t="s">
         <v>476</v>
@@ -37172,7 +38434,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z56" t="s">
         <v>132</v>
@@ -37180,7 +38442,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z57" t="s">
         <v>347</v>
@@ -37188,7 +38450,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>304</v>
+        <v>556</v>
       </c>
       <c r="Z58" t="s">
         <v>469</v>
@@ -37196,7 +38458,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="Z59" t="s">
         <v>133</v>
@@ -37204,7 +38466,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="Z60" t="s">
         <v>134</v>
@@ -37212,7 +38474,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z61" t="s">
         <v>135</v>
@@ -37220,7 +38482,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="Z62" t="s">
         <v>136</v>
@@ -37228,7 +38490,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="Z63" t="s">
         <v>137</v>
@@ -37236,7 +38498,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="Z64" t="s">
         <v>138</v>
@@ -37244,7 +38506,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="Z65" t="s">
         <v>139</v>
@@ -37252,7 +38514,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="Z66" t="s">
         <v>446</v>
@@ -37260,7 +38522,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="Z67" t="s">
         <v>486</v>
@@ -37268,7 +38530,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>541</v>
+        <v>314</v>
       </c>
       <c r="Z68" t="s">
         <v>215</v>
@@ -37276,7 +38538,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z69" t="s">
         <v>395</v>
@@ -37284,7 +38546,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>416</v>
+        <v>541</v>
       </c>
       <c r="Z70" t="s">
         <v>451</v>
@@ -37292,7 +38554,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Z71" t="s">
         <v>140</v>
@@ -37300,7 +38562,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Z72" t="s">
         <v>141</v>
@@ -37308,7 +38570,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="Z73" t="s">
         <v>142</v>
@@ -37316,7 +38578,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>521</v>
+        <v>417</v>
       </c>
       <c r="Z74" t="s">
         <v>143</v>
@@ -37324,7 +38586,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="Z75" t="s">
         <v>198</v>
@@ -37332,7 +38594,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>281</v>
+        <v>521</v>
       </c>
       <c r="Z76" t="s">
         <v>199</v>
@@ -37340,7 +38602,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="Z77" t="s">
         <v>464</v>
@@ -37348,7 +38610,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Z78" t="s">
         <v>480</v>
@@ -37356,7 +38618,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="Z79" t="s">
         <v>144</v>
@@ -37364,7 +38626,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Z80" t="s">
         <v>145</v>
@@ -37372,7 +38634,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>271</v>
+        <v>435</v>
       </c>
       <c r="Z81" t="s">
         <v>146</v>
@@ -37380,7 +38642,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="Z82" t="s">
         <v>508</v>
@@ -37388,7 +38650,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z83" t="s">
         <v>147</v>
@@ -37396,7 +38658,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Z84" t="s">
         <v>148</v>
@@ -37404,7 +38666,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>542</v>
+        <v>288</v>
       </c>
       <c r="Z85" t="s">
         <v>200</v>
@@ -37412,7 +38674,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z86" t="s">
         <v>496</v>
@@ -37420,7 +38682,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>289</v>
+        <v>542</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -37428,7 +38690,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z88" t="s">
         <v>463</v>
@@ -37436,7 +38698,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Z89" t="s">
         <v>202</v>
@@ -37444,7 +38706,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="Z90" t="s">
         <v>203</v>
@@ -37452,7 +38714,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="Z91" t="s">
         <v>216</v>
@@ -37460,7 +38722,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Z92" t="s">
         <v>149</v>
@@ -37468,7 +38730,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Z93" t="s">
         <v>204</v>
@@ -37476,7 +38738,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="Z94" t="s">
         <v>443</v>
@@ -37484,18 +38746,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="Z95" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>278</v>
+      </c>
       <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>279</v>
+      </c>
       <c r="Z97" t="s">
         <v>206</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/failafter-showcase.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,13 +43,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29500" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30051" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1741,13 +1741,16 @@
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="936" x14ac:knownFonts="1">
+  <fonts count="952" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7650,8 +7653,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1624">
+  <fills count="1651">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16850,8 +16954,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1671">
+  <borders count="1703">
     <border>
       <left/>
       <right/>
@@ -33703,6 +33960,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -33710,7 +34293,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="963">
+  <cellXfs count="979">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36570,52 +37153,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1596" fontId="919" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="920" fillId="1599" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1646" fillId="1599" fontId="920" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="921" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="922" fillId="1602" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1650" fillId="1602" fontId="922" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="923" fillId="1605" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1654" fillId="1605" fontId="923" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="924" fillId="1608" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1658" fillId="1608" fontId="924" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="925" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="925" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="926" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1611" fontId="926" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="927" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="927" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="928" fillId="1614" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1662" fillId="1614" fontId="928" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="929" fillId="1605" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1666" fillId="1605" fontId="929" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="930" fillId="1617" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1670" fillId="1617" fontId="930" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="931" fillId="1617" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1670" fillId="1617" fontId="931" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="932" fillId="1608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1608" fontId="932" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="933" fillId="1620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1620" fontId="933" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="934" fillId="1608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1608" fontId="934" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="935" fillId="1623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1623" fontId="935" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="1626" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="1629" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="1632" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="1635" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="1641" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="1632" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="1644" borderId="1702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="1644" borderId="1702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="1635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="1647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="1635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="1650" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37000,7 +37631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -37085,24 +37716,21 @@
         <v>402</v>
       </c>
       <c r="Y1" t="s">
-        <v>552</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>429</v>
       </c>
       <c r="AD1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -37180,24 +37808,21 @@
         <v>403</v>
       </c>
       <c r="Y2" t="s">
-        <v>554</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="AD2" t="s">
-        <v>439</v>
-      </c>
-      <c r="AE2" t="s">
         <v>503</v>
       </c>
     </row>
@@ -37268,22 +37893,22 @@
       <c r="X3" t="s">
         <v>404</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AB3" t="s">
         <v>370</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -37351,22 +37976,22 @@
       <c r="X4" t="s">
         <v>405</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="s">
         <v>430</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -37425,22 +38050,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Y5" t="s">
         <v>356</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AC5" t="s">
         <v>431</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -37493,22 +38118,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="Z6" t="s">
         <v>453</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AC6" t="s">
         <v>432</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -37555,22 +38180,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="Z7" t="s">
         <v>454</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AC7" t="s">
         <v>433</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AD7" t="s">
         <v>546</v>
       </c>
     </row>
@@ -37611,22 +38236,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AC8" t="s">
         <v>434</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AD8" t="s">
         <v>547</v>
       </c>
     </row>
@@ -37667,13 +38292,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>548</v>
       </c>
     </row>
@@ -37708,13 +38333,13 @@
       <c r="T10" t="s">
         <v>415</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -37746,13 +38371,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -37784,13 +38409,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -37819,13 +38444,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>487</v>
       </c>
     </row>
@@ -37854,13 +38479,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>504</v>
       </c>
     </row>
@@ -37886,13 +38511,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>505</v>
       </c>
     </row>
@@ -37910,7 +38535,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="Q16" t="s">
         <v>513</v>
@@ -37918,13 +38543,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -37942,15 +38567,15 @@
         <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Y17" t="s">
         <v>514</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>471</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -37967,10 +38592,13 @@
       <c r="K18" t="s">
         <v>466</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>488</v>
       </c>
     </row>
@@ -37987,10 +38615,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>506</v>
       </c>
     </row>
@@ -38007,10 +38635,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>507</v>
       </c>
     </row>
@@ -38027,10 +38655,10 @@
       <c r="K21" t="s">
         <v>386</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>511</v>
       </c>
     </row>
@@ -38047,10 +38675,10 @@
       <c r="K22" t="s">
         <v>483</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>497</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -38067,10 +38695,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>549</v>
       </c>
     </row>
@@ -38087,16 +38715,16 @@
       <c r="K24" t="s">
         <v>398</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>552</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>64</v>
@@ -38107,16 +38735,16 @@
       <c r="K25" t="s">
         <v>536</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>457</v>
@@ -38127,16 +38755,16 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>226</v>
@@ -38147,16 +38775,16 @@
       <c r="K27" t="s">
         <v>448</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>227</v>
@@ -38167,13 +38795,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>429</v>
       </c>
       <c r="E29" t="s">
         <v>481</v>
@@ -38184,13 +38812,13 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>429</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
         <v>482</v>
@@ -38198,21 +38826,18 @@
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
       <c r="E31" t="s">
         <v>425</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -38223,7 +38848,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -38234,7 +38859,7 @@
       <c r="G33" t="s">
         <v>520</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -38245,7 +38870,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -38256,7 +38881,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -38267,7 +38892,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -38278,7 +38903,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -38289,7 +38914,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>441</v>
       </c>
     </row>
@@ -38300,7 +38925,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>540</v>
       </c>
     </row>
@@ -38308,7 +38933,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>399</v>
       </c>
     </row>
@@ -38316,7 +38941,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -38324,7 +38949,7 @@
       <c r="G42" t="s">
         <v>555</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -38332,7 +38957,7 @@
       <c r="G43" t="s">
         <v>290</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -38340,7 +38965,7 @@
       <c r="G44" t="s">
         <v>301</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -38348,7 +38973,7 @@
       <c r="G45" t="s">
         <v>302</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -38356,7 +38981,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -38364,7 +38989,7 @@
       <c r="G47" t="s">
         <v>343</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>450</v>
       </c>
     </row>
@@ -38372,7 +38997,7 @@
       <c r="G48" t="s">
         <v>212</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -38380,7 +39005,7 @@
       <c r="G49" t="s">
         <v>321</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -38388,7 +39013,7 @@
       <c r="G50" t="s">
         <v>340</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>545</v>
       </c>
     </row>
@@ -38396,7 +39021,7 @@
       <c r="G51" t="s">
         <v>374</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -38404,7 +39029,7 @@
       <c r="G52" t="s">
         <v>303</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -38412,7 +39037,7 @@
       <c r="G53" t="s">
         <v>357</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -38420,7 +39045,7 @@
       <c r="G54" t="s">
         <v>332</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>495</v>
       </c>
     </row>
@@ -38428,7 +39053,7 @@
       <c r="G55" t="s">
         <v>269</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>476</v>
       </c>
     </row>
@@ -38436,7 +39061,7 @@
       <c r="G56" t="s">
         <v>293</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -38444,7 +39069,7 @@
       <c r="G57" t="s">
         <v>294</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -38452,7 +39077,7 @@
       <c r="G58" t="s">
         <v>556</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>469</v>
       </c>
     </row>
@@ -38460,7 +39085,7 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -38468,7 +39093,7 @@
       <c r="G60" t="s">
         <v>304</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -38476,7 +39101,7 @@
       <c r="G61" t="s">
         <v>313</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -38484,7 +39109,7 @@
       <c r="G62" t="s">
         <v>338</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -38492,7 +39117,7 @@
       <c r="G63" t="s">
         <v>310</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -38500,7 +39125,7 @@
       <c r="G64" t="s">
         <v>311</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -38508,7 +39133,7 @@
       <c r="G65" t="s">
         <v>375</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -38516,7 +39141,7 @@
       <c r="G66" t="s">
         <v>376</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>446</v>
       </c>
     </row>
@@ -38524,7 +39149,7 @@
       <c r="G67" t="s">
         <v>346</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>486</v>
       </c>
     </row>
@@ -38532,7 +39157,7 @@
       <c r="G68" t="s">
         <v>314</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -38540,7 +39165,7 @@
       <c r="G69" t="s">
         <v>270</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>395</v>
       </c>
     </row>
@@ -38548,7 +39173,7 @@
       <c r="G70" t="s">
         <v>541</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>451</v>
       </c>
     </row>
@@ -38556,7 +39181,7 @@
       <c r="G71" t="s">
         <v>315</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -38564,7 +39189,7 @@
       <c r="G72" t="s">
         <v>416</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -38572,7 +39197,7 @@
       <c r="G73" t="s">
         <v>305</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -38580,7 +39205,7 @@
       <c r="G74" t="s">
         <v>417</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -38588,7 +39213,7 @@
       <c r="G75" t="s">
         <v>263</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -38596,7 +39221,7 @@
       <c r="G76" t="s">
         <v>521</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -38604,7 +39229,7 @@
       <c r="G77" t="s">
         <v>345</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>464</v>
       </c>
     </row>
@@ -38612,7 +39237,7 @@
       <c r="G78" t="s">
         <v>281</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>480</v>
       </c>
     </row>
@@ -38620,7 +39245,7 @@
       <c r="G79" t="s">
         <v>287</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -38628,7 +39253,7 @@
       <c r="G80" t="s">
         <v>292</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -38636,7 +39261,7 @@
       <c r="G81" t="s">
         <v>435</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -38644,7 +39269,7 @@
       <c r="G82" t="s">
         <v>333</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>508</v>
       </c>
     </row>
@@ -38652,7 +39277,7 @@
       <c r="G83" t="s">
         <v>271</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -38660,7 +39285,7 @@
       <c r="G84" t="s">
         <v>282</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -38668,7 +39293,7 @@
       <c r="G85" t="s">
         <v>288</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -38676,7 +39301,7 @@
       <c r="G86" t="s">
         <v>277</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>496</v>
       </c>
     </row>
@@ -38684,7 +39309,7 @@
       <c r="G87" t="s">
         <v>542</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -38692,7 +39317,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>463</v>
       </c>
     </row>
@@ -38700,7 +39325,7 @@
       <c r="G89" t="s">
         <v>289</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -38708,7 +39333,7 @@
       <c r="G90" t="s">
         <v>273</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -38716,7 +39341,7 @@
       <c r="G91" t="s">
         <v>274</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -38724,7 +39349,7 @@
       <c r="G92" t="s">
         <v>306</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -38732,7 +39357,7 @@
       <c r="G93" t="s">
         <v>312</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -38740,7 +39365,7 @@
       <c r="G94" t="s">
         <v>296</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>443</v>
       </c>
     </row>
@@ -38748,7 +39373,7 @@
       <c r="G95" t="s">
         <v>341</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>445</v>
       </c>
     </row>
@@ -38756,7 +39381,7 @@
       <c r="G96" t="s">
         <v>278</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
@@ -38764,167 +39389,167 @@
       <c r="G97" t="s">
         <v>279</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>
